--- a/Översikt KIRUNA.xlsx
+++ b/Översikt KIRUNA.xlsx
@@ -575,7 +575,7 @@
         <v>44624</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
         <v>45426</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>46000</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>45775</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1013,14 +1013,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 17705-2023</t>
+          <t>A 53309-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45035</v>
+        <v>45229</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,164 +1032,164 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G6" t="n">
-        <v>58.9</v>
+        <v>1.6</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>1</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>3</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Havsörn
+Fiskgjuse
+Grönsiska</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 53309-2023 artfynd.xlsx", "A 53309-2023")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 53309-2023 karta.png", "A 53309-2023")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 53309-2023 FSC-klagomål.docx", "A 53309-2023")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 53309-2023 FSC-klagomål mail.docx", "A 53309-2023")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 53309-2023 tillsynsbegäran.docx", "A 53309-2023")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 53309-2023 tillsynsbegäran mail.docx", "A 53309-2023")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/fåglar/A 53309-2023 prioriterade fågelarter.docx", "A 53309-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 17705-2023</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45035</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Fläckporing
 Orange taggsvamp
 Dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 17705-2023 artfynd.xlsx", "A 17705-2023")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 17705-2023 karta.png", "A 17705-2023")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 17705-2023 FSC-klagomål.docx", "A 17705-2023")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 17705-2023 FSC-klagomål mail.docx", "A 17705-2023")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 17705-2023 tillsynsbegäran.docx", "A 17705-2023")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 17705-2023 tillsynsbegäran mail.docx", "A 17705-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 53309-2023</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45229</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Havsörn
-Fiskgjuse
-Grönsiska</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 53309-2023 artfynd.xlsx", "A 53309-2023")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 53309-2023 karta.png", "A 53309-2023")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 53309-2023 FSC-klagomål.docx", "A 53309-2023")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 53309-2023 FSC-klagomål mail.docx", "A 53309-2023")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 53309-2023 tillsynsbegäran.docx", "A 53309-2023")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 53309-2023 tillsynsbegäran mail.docx", "A 53309-2023")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/fåglar/A 53309-2023 prioriterade fågelarter.docx", "A 53309-2023")</f>
         <v/>
       </c>
     </row>
@@ -1203,7 +1203,7 @@
         <v>45776</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>45222</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1374,14 +1374,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 64829-2023</t>
+          <t>A 4367-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45281</v>
+        <v>45326</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1394,16 +1394,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>31.7</v>
+        <v>7.5</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1428,118 +1428,118 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
+          <t>Granticka
+Tallticka</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 4367-2024 artfynd.xlsx", "A 4367-2024")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 4367-2024 karta.png", "A 4367-2024")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 4367-2024 FSC-klagomål.docx", "A 4367-2024")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 4367-2024 FSC-klagomål mail.docx", "A 4367-2024")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 4367-2024 tillsynsbegäran.docx", "A 4367-2024")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 4367-2024 tillsynsbegäran mail.docx", "A 4367-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 64829-2023</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45281</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Månlåsbräken
 Mattlummer</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 64829-2023 artfynd.xlsx", "A 64829-2023")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 64829-2023 karta.png", "A 64829-2023")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 64829-2023 FSC-klagomål.docx", "A 64829-2023")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 64829-2023 FSC-klagomål mail.docx", "A 64829-2023")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 64829-2023 tillsynsbegäran.docx", "A 64829-2023")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 64829-2023 tillsynsbegäran mail.docx", "A 64829-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 4367-2024</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45326</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Granticka
-Tallticka</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 4367-2024 artfynd.xlsx", "A 4367-2024")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 4367-2024 karta.png", "A 4367-2024")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 4367-2024 FSC-klagomål.docx", "A 4367-2024")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 4367-2024 FSC-klagomål mail.docx", "A 4367-2024")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 4367-2024 tillsynsbegäran.docx", "A 4367-2024")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 4367-2024 tillsynsbegäran mail.docx", "A 4367-2024")</f>
         <v/>
       </c>
     </row>
@@ -1553,7 +1553,7 @@
         <v>45222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>44844</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>45447</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>45779</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>45035</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>44375</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>44340</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>44375</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>44840</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>44260</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>44375</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>44875</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>44340</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>44623</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>44623.92326388889</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2562,14 +2562,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 18698-2025</t>
+          <t>A 20578-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45763</v>
+        <v>45775</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2581,8 +2581,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>29.7</v>
+        <v>12.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2619,14 +2624,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 9605-2024</t>
+          <t>A 58860-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45361.44230324074</v>
+        <v>44896</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2639,7 +2644,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>8.4</v>
+        <v>0.3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2676,14 +2681,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 21112-2025</t>
+          <t>A 20581-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2695,8 +2700,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>7.2</v>
+        <v>4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2733,14 +2743,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 5411-2024</t>
+          <t>A 39247-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45331</v>
+        <v>45162</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2753,7 +2763,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.9</v>
+        <v>11.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2790,14 +2800,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 18712-2025</t>
+          <t>A 62460-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45763</v>
+        <v>44916</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2810,7 +2820,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>66.5</v>
+        <v>13.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2847,14 +2857,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 148-2026</t>
+          <t>A 36939-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>46024.6446875</v>
+        <v>44805</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2867,7 +2877,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>10.2</v>
+        <v>3.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2904,14 +2914,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 22494-2024</t>
+          <t>A 60064-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45447</v>
+        <v>45258.3846412037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2924,7 +2934,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>6</v>
+        <v>19.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2961,14 +2971,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 5842-2023</t>
+          <t>A 50590-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44958</v>
+        <v>45217.40167824074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2981,7 +2991,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3018,14 +3028,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 9069-2023</t>
+          <t>A 21112-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44979</v>
+        <v>45777</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3037,13 +3047,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>4</v>
+        <v>7.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3080,14 +3085,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 2658-2026</t>
+          <t>A 18698-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>46037.63512731482</v>
+        <v>45763</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3100,7 +3105,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>22.5</v>
+        <v>29.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3137,14 +3142,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 2664-2026</t>
+          <t>A 5533-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>46037.64078703704</v>
+        <v>45334</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3157,7 +3162,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>31.3</v>
+        <v>2.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3194,14 +3199,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 29932-2021</t>
+          <t>A 9605-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44362</v>
+        <v>45361.44230324074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3214,7 +3219,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>9.1</v>
+        <v>8.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3251,14 +3256,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 20558-2025</t>
+          <t>A 5411-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45775</v>
+        <v>45331</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3271,7 +3276,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>23.3</v>
+        <v>3.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3308,14 +3313,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 62439-2022</t>
+          <t>A 33183-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44916</v>
+        <v>45840.59206018518</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3328,7 +3333,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3365,14 +3370,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 22504-2024</t>
+          <t>A 28707-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45447</v>
+        <v>44748</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3385,7 +3390,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3422,14 +3427,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 5476-2024</t>
+          <t>A 9068-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45333</v>
+        <v>44979</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3441,8 +3446,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>1.8</v>
+        <v>4.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3479,14 +3489,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 2660-2026</t>
+          <t>A 93-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>46037</v>
+        <v>45293</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3499,7 +3509,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3543,7 +3553,7 @@
         <v>45944.52140046296</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3598,14 +3608,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 49704-2024</t>
+          <t>A 34663-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45596</v>
+        <v>45848.37454861111</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3618,7 +3628,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>17.4</v>
+        <v>5.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3655,14 +3665,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 22491-2024</t>
+          <t>A 34664-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45447</v>
+        <v>45848.37857638889</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3675,7 +3685,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3712,14 +3722,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 18721-2024</t>
+          <t>A 39271-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45426</v>
+        <v>45162</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3732,7 +3742,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>62.1</v>
+        <v>51.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3769,14 +3779,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 21184-2025</t>
+          <t>A 18712-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45777</v>
+        <v>45763</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3789,7 +3799,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>20.1</v>
+        <v>66.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3833,7 +3843,7 @@
         <v>45776</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3883,14 +3893,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 38577-2024</t>
+          <t>A 21184-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45546</v>
+        <v>45777</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3903,7 +3913,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>39.8</v>
+        <v>20.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3940,14 +3950,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 13526-2024</t>
+          <t>A 56168-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45387</v>
+        <v>45236</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3959,8 +3969,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>8.199999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3997,14 +4012,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 9068-2023</t>
+          <t>A 22494-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44979</v>
+        <v>45447</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4016,13 +4031,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>4.6</v>
+        <v>6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4059,14 +4069,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 23469-2022</t>
+          <t>A 148-2026</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44721</v>
+        <v>46024.6446875</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4079,7 +4089,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>11.8</v>
+        <v>10.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4116,14 +4126,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 62452-2022</t>
+          <t>A 16024-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44916</v>
+        <v>45405</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4136,7 +4146,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>7.2</v>
+        <v>2.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4173,14 +4183,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 62460-2022</t>
+          <t>A 2664-2026</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44916</v>
+        <v>46037.64078703704</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4193,7 +4203,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>13.4</v>
+        <v>31.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4230,14 +4240,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 39247-2023</t>
+          <t>A 47730-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45162</v>
+        <v>45588</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4249,8 +4259,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>11.7</v>
+        <v>3.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4287,14 +4302,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 47730-2024</t>
+          <t>A 2658-2026</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45588</v>
+        <v>46037.63512731482</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4306,13 +4321,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>3.7</v>
+        <v>22.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4349,14 +4359,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 36939-2022</t>
+          <t>A 9069-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44805</v>
+        <v>44979</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4368,8 +4378,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4406,14 +4421,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 16024-2024</t>
+          <t>A 49704-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45405</v>
+        <v>45596</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4426,7 +4441,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.3</v>
+        <v>17.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4463,14 +4478,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 20744-2024</t>
+          <t>A 20558-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45436</v>
+        <v>45775</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4483,7 +4498,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>9.699999999999999</v>
+        <v>23.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4520,14 +4535,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 18738-2022</t>
+          <t>A 22491-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44687</v>
+        <v>45447</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4540,7 +4555,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.5</v>
+        <v>9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4577,14 +4592,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 20581-2025</t>
+          <t>A 39006-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45775</v>
+        <v>45162</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4596,13 +4611,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4639,14 +4649,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 28707-2022</t>
+          <t>A 2660-2026</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44748</v>
+        <v>46037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4659,7 +4669,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>15.2</v>
+        <v>1.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4696,14 +4706,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 39006-2023</t>
+          <t>A 20744-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45162</v>
+        <v>45436</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4716,7 +4726,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4753,14 +4763,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 39271-2023</t>
+          <t>A 18737-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45162</v>
+        <v>45042</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4772,8 +4782,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>51.9</v>
+        <v>10.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4810,14 +4825,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 20578-2025</t>
+          <t>A 8350-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45775</v>
+        <v>45708</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4831,11 +4846,11 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>12.5</v>
+        <v>0.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4872,14 +4887,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 58860-2022</t>
+          <t>A 22504-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44896</v>
+        <v>45447</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4892,7 +4907,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.3</v>
+        <v>15.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4929,14 +4944,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 93-2024</t>
+          <t>A 29932-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45293</v>
+        <v>44362</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4949,7 +4964,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.8</v>
+        <v>9.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4986,14 +5001,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 18737-2023</t>
+          <t>A 62452-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45042</v>
+        <v>44916</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5005,13 +5020,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>10.7</v>
+        <v>7.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5048,14 +5058,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 34693-2022</t>
+          <t>A 38577-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44795</v>
+        <v>45546</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5068,7 +5078,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>12.3</v>
+        <v>39.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5105,14 +5115,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 5533-2024</t>
+          <t>A 5842-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45334</v>
+        <v>44958</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5125,7 +5135,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5162,14 +5172,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 56168-2023</t>
+          <t>A 23469-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45236</v>
+        <v>44721</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5181,13 +5191,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>6.6</v>
+        <v>11.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5224,14 +5229,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 8350-2025</t>
+          <t>A 18738-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45708</v>
+        <v>44687</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5243,13 +5248,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5286,14 +5286,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 41127-2023</t>
+          <t>A 5476-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45173</v>
+        <v>45333</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5305,13 +5305,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5348,14 +5343,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 20764-2025</t>
+          <t>A 34693-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45776</v>
+        <v>44795</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5367,13 +5362,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>1.2</v>
+        <v>12.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5410,14 +5400,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 20770-2025</t>
+          <t>A 41127-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45776</v>
+        <v>45173</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5431,11 +5421,11 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5.5</v>
+        <v>1.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5472,14 +5462,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 61066-2024</t>
+          <t>A 18721-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45645.49744212963</v>
+        <v>45426</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5492,7 +5482,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>4.5</v>
+        <v>62.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5529,14 +5519,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 50590-2023</t>
+          <t>A 13526-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45217.40167824074</v>
+        <v>45387</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5549,7 +5539,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5586,14 +5576,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 60064-2023</t>
+          <t>A 62439-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45258.3846412037</v>
+        <v>44916</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5606,7 +5596,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>19.8</v>
+        <v>3.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5643,14 +5633,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 33183-2025</t>
+          <t>A 20764-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45840.59206018518</v>
+        <v>45776</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5662,8 +5652,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5700,14 +5695,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 34664-2025</t>
+          <t>A 20770-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45848.37857638889</v>
+        <v>45776</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5719,8 +5714,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>8.4</v>
+        <v>5.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5757,14 +5757,14 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 34663-2025</t>
+          <t>A 61066-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45848.37454861111</v>
+        <v>45645.49744212963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>

--- a/Översikt KIRUNA.xlsx
+++ b/Översikt KIRUNA.xlsx
@@ -575,7 +575,7 @@
         <v>44624</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
         <v>45426</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>46000</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>45775</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>45229</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>45035</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>45776</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>45222</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>45326</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>45281</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>45222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>44844</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>45447</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>45779</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>45035</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>44375</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>44340</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>44375</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>44840</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>44260</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>44375</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>44875</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>44340</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>44623</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>44623.92326388889</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>45775</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>44896</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>45775</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>45162</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>44916</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>44805</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>45258.3846412037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>45217.40167824074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>45777</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>45763</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>45334</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>45361.44230324074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>45331</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>45840.59206018518</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>44748</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>44979</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3496,7 +3496,7 @@
         <v>45293</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>45944.52140046296</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>45848.37454861111</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>45848.37857638889</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>45162</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>45763</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
         <v>45776</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>45777</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         <v>45236</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>45447</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>46024.6446875</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>45405</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>46037.64078703704</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         <v>45588</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>46037.63512731482</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>44979</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>45596</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>45775</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>45447</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>45162</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>46037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>45436</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>45042</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>45708</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>45447</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>44362</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>44916</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>45546</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         <v>44958</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5179,7 +5179,7 @@
         <v>44721</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5236,7 +5236,7 @@
         <v>44687</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
         <v>45333</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>44795</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5407,7 +5407,7 @@
         <v>45173</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5469,7 +5469,7 @@
         <v>45426</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         <v>45387</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5583,7 +5583,7 @@
         <v>44916</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>45776</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>45776</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>45645.49744212963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>

--- a/Översikt KIRUNA.xlsx
+++ b/Översikt KIRUNA.xlsx
@@ -575,7 +575,7 @@
         <v>44624</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
         <v>45426</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>46000</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>45775</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>45229</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>45035</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>45776</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>45222</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>45326</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>45281</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>45222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>44844</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>45447</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>45779</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>45035</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>44375</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>44340</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>44375</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>44840</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>44260</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>44375</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>44875</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>44340</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>44623</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>44623.92326388889</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>45775</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>44896</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>45775</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>45162</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>44916</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>44805</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>45258.3846412037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>45217.40167824074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>45777</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>45763</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>45334</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>45361.44230324074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>45331</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>45840.59206018518</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>44748</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>44979</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3496,7 +3496,7 @@
         <v>45293</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>45944.52140046296</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>45848.37454861111</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>45848.37857638889</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>45162</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>45763</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
         <v>45776</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>45777</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         <v>45236</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>45447</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>46024.6446875</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>45405</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>46037.64078703704</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         <v>45588</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>46037.63512731482</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>44979</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>45596</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>45775</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>45447</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>45162</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>46037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>45436</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>45042</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>45708</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>45447</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>44362</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>44916</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>45546</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         <v>44958</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5179,7 +5179,7 @@
         <v>44721</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5236,7 +5236,7 @@
         <v>44687</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
         <v>45333</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>44795</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5407,7 +5407,7 @@
         <v>45173</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5469,7 +5469,7 @@
         <v>45426</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         <v>45387</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5583,7 +5583,7 @@
         <v>44916</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>45776</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>45776</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>45645.49744212963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>

--- a/Översikt KIRUNA.xlsx
+++ b/Översikt KIRUNA.xlsx
@@ -575,7 +575,7 @@
         <v>44624</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
         <v>45426</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>46000</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>45775</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1013,14 +1013,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 53309-2023</t>
+          <t>A 17705-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45229</v>
+        <v>45035</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,20 +1032,25 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G6" t="n">
-        <v>1.6</v>
+        <v>58.9</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1057,139 +1062,134 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
         <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>3</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Fläckporing
+Orange taggsvamp
+Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 17705-2023 artfynd.xlsx", "A 17705-2023")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 17705-2023 karta.png", "A 17705-2023")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 17705-2023 FSC-klagomål.docx", "A 17705-2023")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 17705-2023 FSC-klagomål mail.docx", "A 17705-2023")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 17705-2023 tillsynsbegäran.docx", "A 17705-2023")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 17705-2023 tillsynsbegäran mail.docx", "A 17705-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 53309-2023</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45229</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Havsörn
 Fiskgjuse
 Grönsiska</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 53309-2023 artfynd.xlsx", "A 53309-2023")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 53309-2023 karta.png", "A 53309-2023")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 53309-2023 FSC-klagomål.docx", "A 53309-2023")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 53309-2023 FSC-klagomål mail.docx", "A 53309-2023")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 53309-2023 tillsynsbegäran.docx", "A 53309-2023")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 53309-2023 tillsynsbegäran mail.docx", "A 53309-2023")</f>
         <v/>
       </c>
-      <c r="Z6">
+      <c r="Z7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/fåglar/A 53309-2023 prioriterade fågelarter.docx", "A 53309-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 17705-2023</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45035</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>58.9</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Fläckporing
-Orange taggsvamp
-Dropptaggsvamp</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 17705-2023 artfynd.xlsx", "A 17705-2023")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 17705-2023 karta.png", "A 17705-2023")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 17705-2023 FSC-klagomål.docx", "A 17705-2023")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 17705-2023 FSC-klagomål mail.docx", "A 17705-2023")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 17705-2023 tillsynsbegäran.docx", "A 17705-2023")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 17705-2023 tillsynsbegäran mail.docx", "A 17705-2023")</f>
         <v/>
       </c>
     </row>
@@ -1203,7 +1203,7 @@
         <v>45776</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1288,14 +1288,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 53264-2023</t>
+          <t>A 64829-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45222</v>
+        <v>45281</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1308,17 +1308,17 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>100.3</v>
+        <v>31.7</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1342,204 +1342,204 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Månlåsbräken
+Mattlummer</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 64829-2023 artfynd.xlsx", "A 64829-2023")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 64829-2023 karta.png", "A 64829-2023")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 64829-2023 FSC-klagomål.docx", "A 64829-2023")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 64829-2023 FSC-klagomål mail.docx", "A 64829-2023")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 64829-2023 tillsynsbegäran.docx", "A 64829-2023")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 64829-2023 tillsynsbegäran mail.docx", "A 64829-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 53264-2023</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45222</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Plattlummer
 Revlummer</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 53264-2023 artfynd.xlsx", "A 53264-2023")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 53264-2023 karta.png", "A 53264-2023")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 53264-2023 FSC-klagomål.docx", "A 53264-2023")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 53264-2023 FSC-klagomål mail.docx", "A 53264-2023")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 53264-2023 tillsynsbegäran.docx", "A 53264-2023")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 53264-2023 tillsynsbegäran mail.docx", "A 53264-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 4367-2024</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>45326</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="C11" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>7.5</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>2</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>2</v>
       </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>2</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Granticka
 Tallticka</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 4367-2024 artfynd.xlsx", "A 4367-2024")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 4367-2024 karta.png", "A 4367-2024")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 4367-2024 FSC-klagomål.docx", "A 4367-2024")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 4367-2024 FSC-klagomål mail.docx", "A 4367-2024")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 4367-2024 tillsynsbegäran.docx", "A 4367-2024")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 4367-2024 tillsynsbegäran mail.docx", "A 4367-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 64829-2023</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45281</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Månlåsbräken
-Mattlummer</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 64829-2023 artfynd.xlsx", "A 64829-2023")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 64829-2023 karta.png", "A 64829-2023")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 64829-2023 FSC-klagomål.docx", "A 64829-2023")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 64829-2023 FSC-klagomål mail.docx", "A 64829-2023")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 64829-2023 tillsynsbegäran.docx", "A 64829-2023")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 64829-2023 tillsynsbegäran mail.docx", "A 64829-2023")</f>
         <v/>
       </c>
     </row>
@@ -1553,7 +1553,7 @@
         <v>45222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>44844</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>45447</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>45779</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>45035</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>44375</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>44340</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>44375</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>44840</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>44260</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>44375</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>44875</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>44340</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>44623</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>44623.92326388889</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2562,14 +2562,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 20578-2025</t>
+          <t>A 9605-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45775</v>
+        <v>45361.44230324074</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2581,13 +2581,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G27" t="n">
-        <v>12.5</v>
+        <v>8.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2624,14 +2619,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 58860-2022</t>
+          <t>A 5411-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44896</v>
+        <v>45331</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2644,7 +2639,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.3</v>
+        <v>3.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2681,14 +2676,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 20581-2025</t>
+          <t>A 22494-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45775</v>
+        <v>45447</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2700,13 +2695,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2743,14 +2733,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 39247-2023</t>
+          <t>A 9069-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45162</v>
+        <v>44979</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2762,8 +2752,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>11.7</v>
+        <v>4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2800,14 +2795,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 62460-2022</t>
+          <t>A 29932-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44916</v>
+        <v>44362</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2820,7 +2815,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>13.4</v>
+        <v>9.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2857,14 +2852,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 36939-2022</t>
+          <t>A 62439-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44805</v>
+        <v>44916</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2877,7 +2872,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2914,14 +2909,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 60064-2023</t>
+          <t>A 22504-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45258.3846412037</v>
+        <v>45447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2934,7 +2929,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>19.8</v>
+        <v>15.6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2971,14 +2966,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 50590-2023</t>
+          <t>A 5476-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45217.40167824074</v>
+        <v>45333</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2991,7 +2986,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3028,14 +3023,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 21112-2025</t>
+          <t>A 18721-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45777</v>
+        <v>45426</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3048,7 +3043,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>7.2</v>
+        <v>62.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3092,7 +3087,7 @@
         <v>45763</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3142,14 +3137,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 5533-2024</t>
+          <t>A 21112-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45334</v>
+        <v>45777</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3162,7 +3157,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.4</v>
+        <v>7.2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3199,14 +3194,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 9605-2024</t>
+          <t>A 33183-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45361.44230324074</v>
+        <v>45840.59206018518</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3219,7 +3214,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>8.4</v>
+        <v>2.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3256,14 +3251,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 5411-2024</t>
+          <t>A 9068-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45331</v>
+        <v>44979</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3275,8 +3270,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3313,14 +3313,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 33183-2025</t>
+          <t>A 34664-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45840.59206018518</v>
+        <v>45848.37857638889</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.8</v>
+        <v>8.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3370,14 +3370,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 28707-2022</t>
+          <t>A 34663-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44748</v>
+        <v>45848.37454861111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>15.2</v>
+        <v>5.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3427,14 +3427,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 9068-2023</t>
+          <t>A 23469-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44979</v>
+        <v>44721</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3446,13 +3446,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>4.6</v>
+        <v>11.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3489,14 +3484,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 93-2024</t>
+          <t>A 62452-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45293</v>
+        <v>44916</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3509,7 +3504,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.8</v>
+        <v>7.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3546,14 +3541,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 50338-2025</t>
+          <t>A 62460-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45944.52140046296</v>
+        <v>44916</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3565,13 +3560,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>22.6</v>
+        <v>13.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3608,14 +3598,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 34663-2025</t>
+          <t>A 47730-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45848.37454861111</v>
+        <v>45588</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3627,8 +3617,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>5.1</v>
+        <v>3.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3665,14 +3660,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 34664-2025</t>
+          <t>A 36939-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45848.37857638889</v>
+        <v>44805</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3685,7 +3680,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>8.4</v>
+        <v>3.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3722,14 +3717,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 39271-2023</t>
+          <t>A 50338-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45162</v>
+        <v>45944.52140046296</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3741,8 +3736,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>51.9</v>
+        <v>22.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3786,7 +3786,7 @@
         <v>45763</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3836,14 +3836,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 20893-2025</t>
+          <t>A 5842-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45776</v>
+        <v>44958</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>27.3</v>
+        <v>2.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>45777</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3950,14 +3950,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 56168-2023</t>
+          <t>A 20893-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45236</v>
+        <v>45776</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3969,13 +3969,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>6.6</v>
+        <v>27.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4012,14 +4007,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 22494-2024</t>
+          <t>A 20558-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45447</v>
+        <v>45775</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4032,7 +4027,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>6</v>
+        <v>23.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4069,14 +4064,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 148-2026</t>
+          <t>A 38577-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>46024.6446875</v>
+        <v>45546</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4089,7 +4084,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>10.2</v>
+        <v>39.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4126,14 +4121,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 16024-2024</t>
+          <t>A 13526-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45405</v>
+        <v>45387</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4146,7 +4141,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4183,14 +4178,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 2664-2026</t>
+          <t>A 39247-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>46037.64078703704</v>
+        <v>45162</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4203,7 +4198,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>31.3</v>
+        <v>11.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4240,14 +4235,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 47730-2024</t>
+          <t>A 148-2026</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45588</v>
+        <v>46024.6446875</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4259,13 +4254,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>3.7</v>
+        <v>10.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4302,14 +4292,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 2658-2026</t>
+          <t>A 16024-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>46037.63512731482</v>
+        <v>45405</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4322,7 +4312,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>22.5</v>
+        <v>2.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4359,14 +4349,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 9069-2023</t>
+          <t>A 20744-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44979</v>
+        <v>45436</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4378,13 +4368,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4421,14 +4406,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 49704-2024</t>
+          <t>A 2658-2026</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45596</v>
+        <v>46037.63512731482</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4441,7 +4426,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>17.4</v>
+        <v>22.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4478,14 +4463,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 20558-2025</t>
+          <t>A 2664-2026</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45775</v>
+        <v>46037.64078703704</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4498,7 +4483,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>23.3</v>
+        <v>31.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4535,14 +4520,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 22491-2024</t>
+          <t>A 18738-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45447</v>
+        <v>44687</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4555,7 +4540,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>9</v>
+        <v>1.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4592,14 +4577,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 39006-2023</t>
+          <t>A 20581-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45162</v>
+        <v>45775</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4611,8 +4596,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4649,14 +4639,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 2660-2026</t>
+          <t>A 28707-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>46037</v>
+        <v>44748</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4669,7 +4659,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.1</v>
+        <v>15.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4706,14 +4696,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 20744-2024</t>
+          <t>A 39006-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45436</v>
+        <v>45162</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4726,7 +4716,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>9.699999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4763,14 +4753,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 18737-2023</t>
+          <t>A 39271-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45042</v>
+        <v>45162</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4782,13 +4772,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>10.7</v>
+        <v>51.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4825,14 +4810,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 8350-2025</t>
+          <t>A 49704-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45708</v>
+        <v>45596</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4844,13 +4829,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>0.8</v>
+        <v>17.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4887,14 +4867,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 22504-2024</t>
+          <t>A 22491-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
         <v>45447</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4907,7 +4887,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>15.6</v>
+        <v>9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4944,14 +4924,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 29932-2021</t>
+          <t>A 20578-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44362</v>
+        <v>45775</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4963,8 +4943,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>9.1</v>
+        <v>12.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5001,14 +4986,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 62452-2022</t>
+          <t>A 58860-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44916</v>
+        <v>44896</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5021,7 +5006,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>7.2</v>
+        <v>0.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5058,14 +5043,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 38577-2024</t>
+          <t>A 93-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45546</v>
+        <v>45293</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5078,7 +5063,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>39.8</v>
+        <v>0.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5115,14 +5100,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 5842-2023</t>
+          <t>A 2660-2026</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44958</v>
+        <v>46037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5135,7 +5120,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5172,14 +5157,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 23469-2022</t>
+          <t>A 18737-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44721</v>
+        <v>45042</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5191,8 +5176,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>11.8</v>
+        <v>10.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5229,14 +5219,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 18738-2022</t>
+          <t>A 34693-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44687</v>
+        <v>44795</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5249,7 +5239,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.5</v>
+        <v>12.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5286,14 +5276,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 5476-2024</t>
+          <t>A 5533-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45333</v>
+        <v>45334</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5306,7 +5296,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5343,14 +5333,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 34693-2022</t>
+          <t>A 56168-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44795</v>
+        <v>45236</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5362,8 +5352,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>12.3</v>
+        <v>6.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5400,14 +5395,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 41127-2023</t>
+          <t>A 8350-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45173</v>
+        <v>45708</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5421,11 +5416,11 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5462,14 +5457,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 18721-2024</t>
+          <t>A 41127-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45426</v>
+        <v>45173</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5481,8 +5476,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>62.1</v>
+        <v>1.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5519,14 +5519,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 13526-2024</t>
+          <t>A 20764-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45387</v>
+        <v>45776</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5538,8 +5538,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>8.199999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5576,14 +5581,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 62439-2022</t>
+          <t>A 20770-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44916</v>
+        <v>45776</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5595,8 +5600,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5633,14 +5643,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 20764-2025</t>
+          <t>A 61066-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45776</v>
+        <v>45645.49744212963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5652,13 +5662,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5695,14 +5700,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 20770-2025</t>
+          <t>A 50590-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45776</v>
+        <v>45217.40167824074</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5714,13 +5719,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>5.5</v>
+        <v>1.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5757,14 +5757,14 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 61066-2024</t>
+          <t>A 60064-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45645.49744212963</v>
+        <v>45258.3846412037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4.5</v>
+        <v>19.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>

--- a/Översikt KIRUNA.xlsx
+++ b/Översikt KIRUNA.xlsx
@@ -575,7 +575,7 @@
         <v>44624</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
         <v>45426</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>46000</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>45775</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1013,14 +1013,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 17705-2023</t>
+          <t>A 53309-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45035</v>
+        <v>45229</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,270 +1032,270 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G6" t="n">
-        <v>58.9</v>
+        <v>1.6</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>1</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>3</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Havsörn
+Fiskgjuse
+Grönsiska</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 53309-2023 artfynd.xlsx", "A 53309-2023")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 53309-2023 karta.png", "A 53309-2023")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 53309-2023 FSC-klagomål.docx", "A 53309-2023")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 53309-2023 FSC-klagomål mail.docx", "A 53309-2023")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 53309-2023 tillsynsbegäran.docx", "A 53309-2023")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 53309-2023 tillsynsbegäran mail.docx", "A 53309-2023")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/fåglar/A 53309-2023 prioriterade fågelarter.docx", "A 53309-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 20780-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45776</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Garnlav
+Lappranunkel
+Stuplav</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 20780-2025 artfynd.xlsx", "A 20780-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 20780-2025 karta.png", "A 20780-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 20780-2025 FSC-klagomål.docx", "A 20780-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 20780-2025 FSC-klagomål mail.docx", "A 20780-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 20780-2025 tillsynsbegäran.docx", "A 20780-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 20780-2025 tillsynsbegäran mail.docx", "A 20780-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 17705-2023</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45035</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Fläckporing
 Orange taggsvamp
 Dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 17705-2023 artfynd.xlsx", "A 17705-2023")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 17705-2023 karta.png", "A 17705-2023")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 17705-2023 FSC-klagomål.docx", "A 17705-2023")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 17705-2023 FSC-klagomål mail.docx", "A 17705-2023")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 17705-2023 tillsynsbegäran.docx", "A 17705-2023")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 17705-2023 tillsynsbegäran mail.docx", "A 17705-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 53309-2023</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45229</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Havsörn
-Fiskgjuse
-Grönsiska</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 53309-2023 artfynd.xlsx", "A 53309-2023")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 53309-2023 karta.png", "A 53309-2023")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 53309-2023 FSC-klagomål.docx", "A 53309-2023")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 53309-2023 FSC-klagomål mail.docx", "A 53309-2023")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 53309-2023 tillsynsbegäran.docx", "A 53309-2023")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 53309-2023 tillsynsbegäran mail.docx", "A 53309-2023")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/fåglar/A 53309-2023 prioriterade fågelarter.docx", "A 53309-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 20780-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45776</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Garnlav
-Lappranunkel
-Stuplav</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 20780-2025 artfynd.xlsx", "A 20780-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 20780-2025 karta.png", "A 20780-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 20780-2025 FSC-klagomål.docx", "A 20780-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 20780-2025 FSC-klagomål mail.docx", "A 20780-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 20780-2025 tillsynsbegäran.docx", "A 20780-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 20780-2025 tillsynsbegäran mail.docx", "A 20780-2025")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 64829-2023</t>
+          <t>A 53264-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45281</v>
+        <v>45222</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1308,16 +1308,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>31.7</v>
+        <v>100.3</v>
       </c>
       <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1342,290 +1342,290 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Plattlummer
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 53264-2023 artfynd.xlsx", "A 53264-2023")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 53264-2023 karta.png", "A 53264-2023")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 53264-2023 FSC-klagomål.docx", "A 53264-2023")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 53264-2023 FSC-klagomål mail.docx", "A 53264-2023")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 53264-2023 tillsynsbegäran.docx", "A 53264-2023")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 53264-2023 tillsynsbegäran mail.docx", "A 53264-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 53264-2023</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45222</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Plattlummer
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 53264-2023 artfynd.xlsx", "A 53264-2023")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 53264-2023 karta.png", "A 53264-2023")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 53264-2023 FSC-klagomål.docx", "A 53264-2023")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 53264-2023 FSC-klagomål mail.docx", "A 53264-2023")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 53264-2023 tillsynsbegäran.docx", "A 53264-2023")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 53264-2023 tillsynsbegäran mail.docx", "A 53264-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 4367-2024</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45326</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Granticka
+Tallticka</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 4367-2024 artfynd.xlsx", "A 4367-2024")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 4367-2024 karta.png", "A 4367-2024")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 4367-2024 FSC-klagomål.docx", "A 4367-2024")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 4367-2024 FSC-klagomål mail.docx", "A 4367-2024")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 4367-2024 tillsynsbegäran.docx", "A 4367-2024")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 4367-2024 tillsynsbegäran mail.docx", "A 4367-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 64829-2023</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45281</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
           <t>Månlåsbräken
 Mattlummer</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 64829-2023 artfynd.xlsx", "A 64829-2023")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 64829-2023 karta.png", "A 64829-2023")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 64829-2023 FSC-klagomål.docx", "A 64829-2023")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 64829-2023 FSC-klagomål mail.docx", "A 64829-2023")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 64829-2023 tillsynsbegäran.docx", "A 64829-2023")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 64829-2023 tillsynsbegäran mail.docx", "A 64829-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 53264-2023</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45222</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Plattlummer
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 53264-2023 artfynd.xlsx", "A 53264-2023")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 53264-2023 karta.png", "A 53264-2023")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 53264-2023 FSC-klagomål.docx", "A 53264-2023")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 53264-2023 FSC-klagomål mail.docx", "A 53264-2023")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 53264-2023 tillsynsbegäran.docx", "A 53264-2023")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 53264-2023 tillsynsbegäran mail.docx", "A 53264-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 4367-2024</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45326</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Granticka
-Tallticka</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 4367-2024 artfynd.xlsx", "A 4367-2024")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 4367-2024 karta.png", "A 4367-2024")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 4367-2024 FSC-klagomål.docx", "A 4367-2024")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 4367-2024 FSC-klagomål mail.docx", "A 4367-2024")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 4367-2024 tillsynsbegäran.docx", "A 4367-2024")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 4367-2024 tillsynsbegäran mail.docx", "A 4367-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 53264-2023</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45222</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Plattlummer
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 53264-2023 artfynd.xlsx", "A 53264-2023")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 53264-2023 karta.png", "A 53264-2023")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 53264-2023 FSC-klagomål.docx", "A 53264-2023")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 53264-2023 FSC-klagomål mail.docx", "A 53264-2023")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 53264-2023 tillsynsbegäran.docx", "A 53264-2023")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 53264-2023 tillsynsbegäran mail.docx", "A 53264-2023")</f>
         <v/>
       </c>
     </row>
@@ -1639,7 +1639,7 @@
         <v>44844</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1722,14 +1722,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 22495-2024</t>
+          <t>A 17740-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45447</v>
+        <v>45035</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1741,8 +1741,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>7.1</v>
+        <v>20.1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1751,10 +1756,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1769,52 +1774,52 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Tajgafältmätare</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 22495-2024 artfynd.xlsx", "A 22495-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 17740-2023 artfynd.xlsx", "A 17740-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 22495-2024 karta.png", "A 22495-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 17740-2023 karta.png", "A 17740-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 22495-2024 FSC-klagomål.docx", "A 22495-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 17740-2023 FSC-klagomål.docx", "A 17740-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 22495-2024 FSC-klagomål mail.docx", "A 22495-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 17740-2023 FSC-klagomål mail.docx", "A 17740-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 22495-2024 tillsynsbegäran.docx", "A 22495-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 17740-2023 tillsynsbegäran.docx", "A 17740-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 22495-2024 tillsynsbegäran mail.docx", "A 22495-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 17740-2023 tillsynsbegäran mail.docx", "A 17740-2023")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 21183-2025</t>
+          <t>A 22495-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45779</v>
+        <v>45447</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1827,19 +1832,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>31.9</v>
+        <v>7.1</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1854,52 +1859,52 @@
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Venhavre</t>
+          <t>Tajgafältmätare</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 21183-2025 artfynd.xlsx", "A 21183-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 22495-2024 artfynd.xlsx", "A 22495-2024")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 21183-2025 karta.png", "A 21183-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 22495-2024 karta.png", "A 22495-2024")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 21183-2025 FSC-klagomål.docx", "A 21183-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 22495-2024 FSC-klagomål.docx", "A 22495-2024")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 21183-2025 FSC-klagomål mail.docx", "A 21183-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 22495-2024 FSC-klagomål mail.docx", "A 22495-2024")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 21183-2025 tillsynsbegäran.docx", "A 21183-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 22495-2024 tillsynsbegäran.docx", "A 22495-2024")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 21183-2025 tillsynsbegäran mail.docx", "A 21183-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 22495-2024 tillsynsbegäran mail.docx", "A 22495-2024")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 17740-2023</t>
+          <t>A 21183-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45035</v>
+        <v>45779</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1911,16 +1916,11 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>20.1</v>
+        <v>31.9</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1951,31 +1951,31 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Venhavre</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 17740-2023 artfynd.xlsx", "A 17740-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 21183-2025 artfynd.xlsx", "A 21183-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 17740-2023 karta.png", "A 17740-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 21183-2025 karta.png", "A 21183-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 17740-2023 FSC-klagomål.docx", "A 17740-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 21183-2025 FSC-klagomål.docx", "A 21183-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 17740-2023 FSC-klagomål mail.docx", "A 17740-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 21183-2025 FSC-klagomål mail.docx", "A 21183-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 17740-2023 tillsynsbegäran.docx", "A 17740-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 21183-2025 tillsynsbegäran.docx", "A 21183-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 17740-2023 tillsynsbegäran mail.docx", "A 17740-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 21183-2025 tillsynsbegäran mail.docx", "A 21183-2025")</f>
         <v/>
       </c>
     </row>
@@ -1989,7 +1989,7 @@
         <v>44375</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>44340</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>44375</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>44840</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>44260</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>44375</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>44875</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>44340</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>44623</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>44623.92326388889</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2562,14 +2562,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 9605-2024</t>
+          <t>A 20578-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45361.44230324074</v>
+        <v>45775</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2581,8 +2581,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>8.4</v>
+        <v>12.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2619,14 +2624,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 5411-2024</t>
+          <t>A 58860-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45331</v>
+        <v>44896</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2639,7 +2644,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.9</v>
+        <v>0.3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2676,14 +2681,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 22494-2024</t>
+          <t>A 20581-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45447</v>
+        <v>45775</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2695,8 +2700,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2733,14 +2743,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 9069-2023</t>
+          <t>A 5476-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44979</v>
+        <v>45333</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2752,13 +2762,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2795,14 +2800,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 29932-2021</t>
+          <t>A 34693-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44362</v>
+        <v>44795</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2815,7 +2820,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>9.1</v>
+        <v>12.3</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2852,14 +2857,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 62439-2022</t>
+          <t>A 21112-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44916</v>
+        <v>45777</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2872,7 +2877,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.2</v>
+        <v>7.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2909,14 +2914,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 22504-2024</t>
+          <t>A 18698-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45447</v>
+        <v>45763</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2929,7 +2934,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>15.6</v>
+        <v>29.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2966,14 +2971,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 5476-2024</t>
+          <t>A 41127-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45333</v>
+        <v>45173</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2985,8 +2990,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3030,7 +3040,7 @@
         <v>45426</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3080,14 +3090,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 18698-2025</t>
+          <t>A 39247-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45763</v>
+        <v>45162</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3100,7 +3110,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>29.7</v>
+        <v>11.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3137,14 +3147,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 21112-2025</t>
+          <t>A 13526-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45777</v>
+        <v>45387</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3157,7 +3167,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3194,14 +3204,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 33183-2025</t>
+          <t>A 62439-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45840.59206018518</v>
+        <v>44916</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3214,7 +3224,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3251,14 +3261,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 9068-2023</t>
+          <t>A 20764-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44979</v>
+        <v>45776</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3272,11 +3282,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4.6</v>
+        <v>1.2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3313,14 +3323,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 34664-2025</t>
+          <t>A 20770-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45848.37857638889</v>
+        <v>45776</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3332,8 +3342,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>8.4</v>
+        <v>5.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3370,14 +3385,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 34663-2025</t>
+          <t>A 62460-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45848.37454861111</v>
+        <v>44916</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3390,7 +3405,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>5.1</v>
+        <v>13.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3427,14 +3442,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 23469-2022</t>
+          <t>A 36939-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44721</v>
+        <v>44805</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3447,7 +3462,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>11.8</v>
+        <v>3.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3484,14 +3499,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 62452-2022</t>
+          <t>A 61066-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44916</v>
+        <v>45645.49744212963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3504,7 +3519,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>7.2</v>
+        <v>4.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3541,14 +3556,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 62460-2022</t>
+          <t>A 60064-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44916</v>
+        <v>45258.3846412037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3561,7 +3576,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>13.4</v>
+        <v>19.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3598,14 +3613,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 47730-2024</t>
+          <t>A 50590-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45588</v>
+        <v>45217.40167824074</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3617,13 +3632,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>3.7</v>
+        <v>1.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3660,14 +3670,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 36939-2022</t>
+          <t>A 33183-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44805</v>
+        <v>45840.59206018518</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3680,7 +3690,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3717,14 +3727,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 50338-2025</t>
+          <t>A 5533-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45944.52140046296</v>
+        <v>45334</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3736,13 +3746,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>22.6</v>
+        <v>2.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3779,14 +3784,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 18712-2025</t>
+          <t>A 9605-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45763</v>
+        <v>45361.44230324074</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3799,7 +3804,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>66.5</v>
+        <v>8.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3836,14 +3841,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 5842-2023</t>
+          <t>A 5411-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44958</v>
+        <v>45331</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3856,7 +3861,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3893,14 +3898,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 21184-2025</t>
+          <t>A 28707-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45777</v>
+        <v>44748</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3913,7 +3918,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>20.1</v>
+        <v>15.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3950,14 +3955,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 20893-2025</t>
+          <t>A 34663-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45776</v>
+        <v>45848.37454861111</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3970,7 +3975,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>27.3</v>
+        <v>5.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4007,14 +4012,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 20558-2025</t>
+          <t>A 9068-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45775</v>
+        <v>44979</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4026,8 +4031,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>23.3</v>
+        <v>4.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4064,14 +4074,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 38577-2024</t>
+          <t>A 93-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45546</v>
+        <v>45293</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4084,7 +4094,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>39.8</v>
+        <v>0.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4121,14 +4131,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 13526-2024</t>
+          <t>A 34664-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45387</v>
+        <v>45848.37857638889</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4141,7 +4151,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4178,14 +4188,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 39247-2023</t>
+          <t>A 50338-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45162</v>
+        <v>45944.52140046296</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4197,8 +4207,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>11.7</v>
+        <v>22.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4235,14 +4250,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 148-2026</t>
+          <t>A 39271-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>46024.6446875</v>
+        <v>45162</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4255,7 +4270,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>10.2</v>
+        <v>51.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4292,14 +4307,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 16024-2024</t>
+          <t>A 18712-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45405</v>
+        <v>45763</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4312,7 +4327,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.3</v>
+        <v>66.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4349,14 +4364,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 20744-2024</t>
+          <t>A 56168-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45436</v>
+        <v>45236</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4368,8 +4383,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>9.699999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4406,14 +4426,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 2658-2026</t>
+          <t>A 22494-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>46037.63512731482</v>
+        <v>45447</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4426,7 +4446,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>22.5</v>
+        <v>6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4463,14 +4483,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 2664-2026</t>
+          <t>A 20893-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>46037.64078703704</v>
+        <v>45776</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4483,7 +4503,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>31.3</v>
+        <v>27.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4520,14 +4540,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 18738-2022</t>
+          <t>A 21184-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44687</v>
+        <v>45777</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4540,7 +4560,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.5</v>
+        <v>20.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4577,14 +4597,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 20581-2025</t>
+          <t>A 16024-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45775</v>
+        <v>45405</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4596,13 +4616,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4639,14 +4654,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 28707-2022</t>
+          <t>A 148-2026</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44748</v>
+        <v>46024.6446875</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4659,7 +4674,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>15.2</v>
+        <v>10.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4696,14 +4711,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 39006-2023</t>
+          <t>A 2664-2026</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45162</v>
+        <v>46037.64078703704</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4716,7 +4731,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.6</v>
+        <v>31.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4753,14 +4768,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 39271-2023</t>
+          <t>A 47730-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45162</v>
+        <v>45588</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4772,8 +4787,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>51.9</v>
+        <v>3.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4810,14 +4830,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 49704-2024</t>
+          <t>A 2658-2026</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45596</v>
+        <v>46037.63512731482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4830,7 +4850,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>17.4</v>
+        <v>22.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4867,14 +4887,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 22491-2024</t>
+          <t>A 9069-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45447</v>
+        <v>44979</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4886,8 +4906,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4924,14 +4949,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 20578-2025</t>
+          <t>A 20558-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
         <v>45775</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4943,13 +4968,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>12.5</v>
+        <v>23.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4986,14 +5006,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 58860-2022</t>
+          <t>A 49704-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44896</v>
+        <v>45596</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5006,7 +5026,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.3</v>
+        <v>17.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5043,14 +5063,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 93-2024</t>
+          <t>A 39006-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45293</v>
+        <v>45162</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5063,7 +5083,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5100,14 +5120,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 2660-2026</t>
+          <t>A 22491-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>46037</v>
+        <v>45447</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5120,7 +5140,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.1</v>
+        <v>9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5157,14 +5177,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 18737-2023</t>
+          <t>A 20744-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45042</v>
+        <v>45436</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5176,13 +5196,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>10.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5219,14 +5234,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 34693-2022</t>
+          <t>A 2660-2026</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44795</v>
+        <v>46037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5239,7 +5254,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>12.3</v>
+        <v>1.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5276,14 +5291,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 5533-2024</t>
+          <t>A 18737-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45334</v>
+        <v>45042</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5295,8 +5310,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>2.4</v>
+        <v>10.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5333,14 +5353,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 56168-2023</t>
+          <t>A 8350-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45236</v>
+        <v>45708</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5354,11 +5374,11 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>6.6</v>
+        <v>0.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5395,14 +5415,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 8350-2025</t>
+          <t>A 22504-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45708</v>
+        <v>45447</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5414,13 +5434,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>0.8</v>
+        <v>15.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5457,14 +5472,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 41127-2023</t>
+          <t>A 29932-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45173</v>
+        <v>44362</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5476,13 +5491,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>1.3</v>
+        <v>9.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5519,14 +5529,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 20764-2025</t>
+          <t>A 62452-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45776</v>
+        <v>44916</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5538,13 +5548,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>1.2</v>
+        <v>7.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5581,14 +5586,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 20770-2025</t>
+          <t>A 38577-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45776</v>
+        <v>45546</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5600,13 +5605,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>5.5</v>
+        <v>39.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5643,14 +5643,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 61066-2024</t>
+          <t>A 5842-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45645.49744212963</v>
+        <v>44958</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5700,14 +5700,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 50590-2023</t>
+          <t>A 23469-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45217.40167824074</v>
+        <v>44721</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.3</v>
+        <v>11.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5757,14 +5757,14 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 60064-2023</t>
+          <t>A 18738-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45258.3846412037</v>
+        <v>44687</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>19.8</v>
+        <v>1.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>

--- a/Översikt KIRUNA.xlsx
+++ b/Översikt KIRUNA.xlsx
@@ -575,7 +575,7 @@
         <v>44624</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
         <v>45426</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>46000</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>45775</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1013,14 +1013,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 53309-2023</t>
+          <t>A 17705-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45229</v>
+        <v>45035</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,20 +1032,25 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G6" t="n">
-        <v>1.6</v>
+        <v>58.9</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1057,245 +1062,240 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
         <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>3</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Fläckporing
+Orange taggsvamp
+Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 17705-2023 artfynd.xlsx", "A 17705-2023")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 17705-2023 karta.png", "A 17705-2023")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 17705-2023 FSC-klagomål.docx", "A 17705-2023")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 17705-2023 FSC-klagomål mail.docx", "A 17705-2023")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 17705-2023 tillsynsbegäran.docx", "A 17705-2023")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 17705-2023 tillsynsbegäran mail.docx", "A 17705-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 53309-2023</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45229</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Havsörn
 Fiskgjuse
 Grönsiska</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 53309-2023 artfynd.xlsx", "A 53309-2023")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 53309-2023 karta.png", "A 53309-2023")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 53309-2023 FSC-klagomål.docx", "A 53309-2023")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 53309-2023 FSC-klagomål mail.docx", "A 53309-2023")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 53309-2023 tillsynsbegäran.docx", "A 53309-2023")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 53309-2023 tillsynsbegäran mail.docx", "A 53309-2023")</f>
         <v/>
       </c>
-      <c r="Z6">
+      <c r="Z7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/fåglar/A 53309-2023 prioriterade fågelarter.docx", "A 53309-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>A 20780-2025</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>45776</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="C8" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="G8" t="n">
         <v>5.7</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H8" t="n">
         <v>1</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I8" t="n">
         <v>2</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>1</v>
       </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>3</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Lappranunkel
 Stuplav</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 20780-2025 artfynd.xlsx", "A 20780-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 20780-2025 karta.png", "A 20780-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 20780-2025 FSC-klagomål.docx", "A 20780-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 20780-2025 FSC-klagomål mail.docx", "A 20780-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 20780-2025 tillsynsbegäran.docx", "A 20780-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 20780-2025 tillsynsbegäran mail.docx", "A 20780-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 17705-2023</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45035</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>58.9</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Fläckporing
-Orange taggsvamp
-Dropptaggsvamp</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 17705-2023 artfynd.xlsx", "A 17705-2023")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 17705-2023 karta.png", "A 17705-2023")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 17705-2023 FSC-klagomål.docx", "A 17705-2023")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 17705-2023 FSC-klagomål mail.docx", "A 17705-2023")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 17705-2023 tillsynsbegäran.docx", "A 17705-2023")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 17705-2023 tillsynsbegäran mail.docx", "A 17705-2023")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 53264-2023</t>
+          <t>A 64829-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45222</v>
+        <v>45281</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1308,17 +1308,17 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>100.3</v>
+        <v>31.7</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1342,290 +1342,290 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Månlåsbräken
+Mattlummer</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 64829-2023 artfynd.xlsx", "A 64829-2023")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 64829-2023 karta.png", "A 64829-2023")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 64829-2023 FSC-klagomål.docx", "A 64829-2023")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 64829-2023 FSC-klagomål mail.docx", "A 64829-2023")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 64829-2023 tillsynsbegäran.docx", "A 64829-2023")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 64829-2023 tillsynsbegäran mail.docx", "A 64829-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 4367-2024</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45326</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Granticka
+Tallticka</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 4367-2024 artfynd.xlsx", "A 4367-2024")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 4367-2024 karta.png", "A 4367-2024")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 4367-2024 FSC-klagomål.docx", "A 4367-2024")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 4367-2024 FSC-klagomål mail.docx", "A 4367-2024")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 4367-2024 tillsynsbegäran.docx", "A 4367-2024")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 4367-2024 tillsynsbegäran mail.docx", "A 4367-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 53264-2023</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45222</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Plattlummer
 Revlummer</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 53264-2023 artfynd.xlsx", "A 53264-2023")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 53264-2023 karta.png", "A 53264-2023")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 53264-2023 FSC-klagomål.docx", "A 53264-2023")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 53264-2023 FSC-klagomål mail.docx", "A 53264-2023")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 53264-2023 tillsynsbegäran.docx", "A 53264-2023")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 53264-2023 tillsynsbegäran mail.docx", "A 53264-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 53264-2023</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>45222</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="C12" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>100.3</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H12" t="n">
         <v>2</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I12" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>2</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Plattlummer
 Revlummer</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 53264-2023 artfynd.xlsx", "A 53264-2023")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 53264-2023 karta.png", "A 53264-2023")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 53264-2023 FSC-klagomål.docx", "A 53264-2023")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 53264-2023 FSC-klagomål mail.docx", "A 53264-2023")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 53264-2023 tillsynsbegäran.docx", "A 53264-2023")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 53264-2023 tillsynsbegäran mail.docx", "A 53264-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 4367-2024</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45326</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Granticka
-Tallticka</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 4367-2024 artfynd.xlsx", "A 4367-2024")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 4367-2024 karta.png", "A 4367-2024")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 4367-2024 FSC-klagomål.docx", "A 4367-2024")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 4367-2024 FSC-klagomål mail.docx", "A 4367-2024")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 4367-2024 tillsynsbegäran.docx", "A 4367-2024")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 4367-2024 tillsynsbegäran mail.docx", "A 4367-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 64829-2023</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45281</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Månlåsbräken
-Mattlummer</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 64829-2023 artfynd.xlsx", "A 64829-2023")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 64829-2023 karta.png", "A 64829-2023")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 64829-2023 FSC-klagomål.docx", "A 64829-2023")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 64829-2023 FSC-klagomål mail.docx", "A 64829-2023")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 64829-2023 tillsynsbegäran.docx", "A 64829-2023")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 64829-2023 tillsynsbegäran mail.docx", "A 64829-2023")</f>
         <v/>
       </c>
     </row>
@@ -1639,7 +1639,7 @@
         <v>44844</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1722,14 +1722,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 17740-2023</t>
+          <t>A 22495-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45035</v>
+        <v>45447</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1741,13 +1741,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>20.1</v>
+        <v>7.1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1756,10 +1751,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1774,52 +1769,52 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Tajgafältmätare</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 17740-2023 artfynd.xlsx", "A 17740-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 22495-2024 artfynd.xlsx", "A 22495-2024")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 17740-2023 karta.png", "A 17740-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 22495-2024 karta.png", "A 22495-2024")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 17740-2023 FSC-klagomål.docx", "A 17740-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 22495-2024 FSC-klagomål.docx", "A 22495-2024")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 17740-2023 FSC-klagomål mail.docx", "A 17740-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 22495-2024 FSC-klagomål mail.docx", "A 22495-2024")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 17740-2023 tillsynsbegäran.docx", "A 17740-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 22495-2024 tillsynsbegäran.docx", "A 22495-2024")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 17740-2023 tillsynsbegäran mail.docx", "A 17740-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 22495-2024 tillsynsbegäran mail.docx", "A 22495-2024")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 22495-2024</t>
+          <t>A 17740-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45447</v>
+        <v>45035</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1831,8 +1826,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>7.1</v>
+        <v>20.1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1841,10 +1841,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1859,38 +1859,38 @@
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Tajgafältmätare</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 22495-2024 artfynd.xlsx", "A 22495-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 17740-2023 artfynd.xlsx", "A 17740-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 22495-2024 karta.png", "A 22495-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 17740-2023 karta.png", "A 17740-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 22495-2024 FSC-klagomål.docx", "A 22495-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 17740-2023 FSC-klagomål.docx", "A 17740-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 22495-2024 FSC-klagomål mail.docx", "A 22495-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 17740-2023 FSC-klagomål mail.docx", "A 17740-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 22495-2024 tillsynsbegäran.docx", "A 22495-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 17740-2023 tillsynsbegäran.docx", "A 17740-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 22495-2024 tillsynsbegäran mail.docx", "A 22495-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 17740-2023 tillsynsbegäran mail.docx", "A 17740-2023")</f>
         <v/>
       </c>
     </row>
@@ -1904,7 +1904,7 @@
         <v>45779</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>44375</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>44340</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>44375</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>44840</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>44260</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>44375</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>44875</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>44340</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>44623</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>44623.92326388889</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2562,14 +2562,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 20578-2025</t>
+          <t>A 22494-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45775</v>
+        <v>45447</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2581,13 +2581,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G27" t="n">
-        <v>12.5</v>
+        <v>6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2624,14 +2619,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 58860-2022</t>
+          <t>A 9605-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44896</v>
+        <v>45361.44230324074</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2644,7 +2639,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.3</v>
+        <v>8.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2681,14 +2676,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 20581-2025</t>
+          <t>A 9069-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45775</v>
+        <v>44979</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2702,7 +2697,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -2743,14 +2738,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 5476-2024</t>
+          <t>A 5411-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45333</v>
+        <v>45331</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2763,7 +2758,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.8</v>
+        <v>3.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2800,14 +2795,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 34693-2022</t>
+          <t>A 18712-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44795</v>
+        <v>45763</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2820,7 +2815,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>12.3</v>
+        <v>66.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2857,14 +2852,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 21112-2025</t>
+          <t>A 29932-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45777</v>
+        <v>44362</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2877,7 +2872,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>7.2</v>
+        <v>9.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2914,14 +2909,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 18698-2025</t>
+          <t>A 5842-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45763</v>
+        <v>44958</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2934,7 +2929,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>29.7</v>
+        <v>2.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2971,14 +2966,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 41127-2023</t>
+          <t>A 62439-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45173</v>
+        <v>44916</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2990,13 +2985,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3033,14 +3023,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 18721-2024</t>
+          <t>A 20558-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45426</v>
+        <v>45775</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3053,7 +3043,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>62.1</v>
+        <v>23.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3090,14 +3080,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 39247-2023</t>
+          <t>A 22504-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45162</v>
+        <v>45447</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3110,7 +3100,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>11.7</v>
+        <v>15.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3147,14 +3137,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 13526-2024</t>
+          <t>A 5476-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45387</v>
+        <v>45333</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3167,7 +3157,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>8.199999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3204,14 +3194,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 62439-2022</t>
+          <t>A 38577-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44916</v>
+        <v>45546</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3224,7 +3214,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.2</v>
+        <v>39.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3261,14 +3251,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 20764-2025</t>
+          <t>A 13526-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45776</v>
+        <v>45387</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3280,13 +3270,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>1.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3323,14 +3308,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 20770-2025</t>
+          <t>A 39247-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45776</v>
+        <v>45162</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3342,13 +3327,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G40" t="n">
-        <v>5.5</v>
+        <v>11.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3385,14 +3365,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 62460-2022</t>
+          <t>A 18721-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44916</v>
+        <v>45426</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3405,7 +3385,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>13.4</v>
+        <v>62.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3442,14 +3422,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 36939-2022</t>
+          <t>A 16024-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44805</v>
+        <v>45405</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3462,7 +3442,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3499,14 +3479,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 61066-2024</t>
+          <t>A 20744-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45645.49744212963</v>
+        <v>45436</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3519,7 +3499,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3556,14 +3536,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 60064-2023</t>
+          <t>A 9068-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45258.3846412037</v>
+        <v>44979</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3575,8 +3555,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>19.8</v>
+        <v>4.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3613,14 +3598,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 50590-2023</t>
+          <t>A 23469-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45217.40167824074</v>
+        <v>44721</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3633,7 +3618,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.3</v>
+        <v>11.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3670,14 +3655,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 33183-2025</t>
+          <t>A 62452-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45840.59206018518</v>
+        <v>44916</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3690,7 +3675,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.8</v>
+        <v>7.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3727,14 +3712,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 5533-2024</t>
+          <t>A 62460-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45334</v>
+        <v>44916</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3747,7 +3732,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.4</v>
+        <v>13.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3784,14 +3769,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 9605-2024</t>
+          <t>A 18737-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45361.44230324074</v>
+        <v>45042</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3803,8 +3788,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>8.4</v>
+        <v>10.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3841,14 +3831,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 5411-2024</t>
+          <t>A 33183-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45331</v>
+        <v>45840.59206018518</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3861,7 +3851,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3898,14 +3888,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 28707-2022</t>
+          <t>A 18738-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44748</v>
+        <v>44687</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3918,7 +3908,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>15.2</v>
+        <v>1.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3955,14 +3945,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 34663-2025</t>
+          <t>A 34664-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45848.37454861111</v>
+        <v>45848.37857638889</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3975,7 +3965,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>5.1</v>
+        <v>8.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4012,14 +4002,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 9068-2023</t>
+          <t>A 34663-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44979</v>
+        <v>45848.37454861111</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4031,13 +4021,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4074,14 +4059,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 93-2024</t>
+          <t>A 20581-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45293</v>
+        <v>45775</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4093,8 +4078,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4131,14 +4121,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 34664-2025</t>
+          <t>A 47730-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45848.37857638889</v>
+        <v>45588</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4150,8 +4140,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>8.4</v>
+        <v>3.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4188,14 +4183,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 50338-2025</t>
+          <t>A 36939-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45944.52140046296</v>
+        <v>44805</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4207,13 +4202,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>22.6</v>
+        <v>3.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4250,14 +4240,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 39271-2023</t>
+          <t>A 28707-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45162</v>
+        <v>44748</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4270,7 +4260,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>51.9</v>
+        <v>15.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4307,14 +4297,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 18712-2025</t>
+          <t>A 39006-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45763</v>
+        <v>45162</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4327,7 +4317,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>66.5</v>
+        <v>1.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4364,14 +4354,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 56168-2023</t>
+          <t>A 39271-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45236</v>
+        <v>45162</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4383,13 +4373,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>6.6</v>
+        <v>51.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4426,14 +4411,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 22494-2024</t>
+          <t>A 20578-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45447</v>
+        <v>45775</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4445,8 +4430,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>6</v>
+        <v>12.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4483,14 +4473,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 20893-2025</t>
+          <t>A 34693-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45776</v>
+        <v>44795</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4503,7 +4493,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>27.3</v>
+        <v>12.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4540,14 +4530,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 21184-2025</t>
+          <t>A 58860-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45777</v>
+        <v>44896</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4560,7 +4550,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>20.1</v>
+        <v>0.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4597,14 +4587,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 16024-2024</t>
+          <t>A 93-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45405</v>
+        <v>45293</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4617,7 +4607,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4654,14 +4644,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 148-2026</t>
+          <t>A 18698-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>46024.6446875</v>
+        <v>45763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4674,7 +4664,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>10.2</v>
+        <v>29.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4711,14 +4701,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 2664-2026</t>
+          <t>A 21112-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>46037.64078703704</v>
+        <v>45777</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4731,7 +4721,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>31.3</v>
+        <v>7.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4768,14 +4758,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 47730-2024</t>
+          <t>A 5533-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45588</v>
+        <v>45334</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4787,13 +4777,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4830,14 +4815,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 2658-2026</t>
+          <t>A 56168-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>46037.63512731482</v>
+        <v>45236</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4849,8 +4834,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>22.5</v>
+        <v>6.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4887,14 +4877,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 9069-2023</t>
+          <t>A 8350-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44979</v>
+        <v>45708</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4908,11 +4898,11 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4949,14 +4939,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 20558-2025</t>
+          <t>A 41127-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45775</v>
+        <v>45173</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4968,8 +4958,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>23.3</v>
+        <v>1.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5006,14 +5001,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 49704-2024</t>
+          <t>A 20764-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45596</v>
+        <v>45776</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5025,8 +5020,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>17.4</v>
+        <v>1.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5063,14 +5063,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 39006-2023</t>
+          <t>A 20770-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45162</v>
+        <v>45776</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5082,8 +5082,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>1.6</v>
+        <v>5.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5120,14 +5125,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 22491-2024</t>
+          <t>A 50338-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45447</v>
+        <v>45944.52140046296</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5139,8 +5144,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>9</v>
+        <v>22.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5177,14 +5187,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 20744-2024</t>
+          <t>A 61066-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45436</v>
+        <v>45645.49744212963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5197,7 +5207,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>9.699999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5234,14 +5244,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 2660-2026</t>
+          <t>A 50590-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>46037</v>
+        <v>45217.40167824074</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5254,7 +5264,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5291,14 +5301,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 18737-2023</t>
+          <t>A 60064-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45042</v>
+        <v>45258.3846412037</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5310,13 +5320,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>10.7</v>
+        <v>19.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5353,14 +5358,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 8350-2025</t>
+          <t>A 21184-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45708</v>
+        <v>45777</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5372,13 +5377,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>0.8</v>
+        <v>20.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5415,14 +5415,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 22504-2024</t>
+          <t>A 20893-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45447</v>
+        <v>45776</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>15.6</v>
+        <v>27.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5472,14 +5472,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 29932-2021</t>
+          <t>A 148-2026</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44362</v>
+        <v>46024.6446875</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>9.1</v>
+        <v>10.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5529,14 +5529,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 62452-2022</t>
+          <t>A 2658-2026</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44916</v>
+        <v>46037.63512731482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>7.2</v>
+        <v>22.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5586,14 +5586,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 38577-2024</t>
+          <t>A 2664-2026</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45546</v>
+        <v>46037.64078703704</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>39.8</v>
+        <v>31.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5643,14 +5643,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 5842-2023</t>
+          <t>A 49704-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44958</v>
+        <v>45596</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.9</v>
+        <v>17.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5700,14 +5700,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 23469-2022</t>
+          <t>A 22491-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44721</v>
+        <v>45447</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>11.8</v>
+        <v>9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5757,14 +5757,14 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 18738-2022</t>
+          <t>A 2660-2026</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44687</v>
+        <v>46037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>

--- a/Översikt KIRUNA.xlsx
+++ b/Översikt KIRUNA.xlsx
@@ -575,7 +575,7 @@
         <v>44624</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
         <v>45426</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>46000</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>45775</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1013,14 +1013,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 17705-2023</t>
+          <t>A 53309-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45035</v>
+        <v>45229</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,164 +1032,164 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G6" t="n">
-        <v>58.9</v>
+        <v>1.6</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>1</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>3</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Havsörn
+Fiskgjuse
+Grönsiska</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 53309-2023 artfynd.xlsx", "A 53309-2023")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 53309-2023 karta.png", "A 53309-2023")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 53309-2023 FSC-klagomål.docx", "A 53309-2023")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 53309-2023 FSC-klagomål mail.docx", "A 53309-2023")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 53309-2023 tillsynsbegäran.docx", "A 53309-2023")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 53309-2023 tillsynsbegäran mail.docx", "A 53309-2023")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/fåglar/A 53309-2023 prioriterade fågelarter.docx", "A 53309-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 17705-2023</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45035</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Fläckporing
 Orange taggsvamp
 Dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 17705-2023 artfynd.xlsx", "A 17705-2023")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 17705-2023 karta.png", "A 17705-2023")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 17705-2023 FSC-klagomål.docx", "A 17705-2023")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 17705-2023 FSC-klagomål mail.docx", "A 17705-2023")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 17705-2023 tillsynsbegäran.docx", "A 17705-2023")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 17705-2023 tillsynsbegäran mail.docx", "A 17705-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 53309-2023</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45229</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Havsörn
-Fiskgjuse
-Grönsiska</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 53309-2023 artfynd.xlsx", "A 53309-2023")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 53309-2023 karta.png", "A 53309-2023")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 53309-2023 FSC-klagomål.docx", "A 53309-2023")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 53309-2023 FSC-klagomål mail.docx", "A 53309-2023")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 53309-2023 tillsynsbegäran.docx", "A 53309-2023")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 53309-2023 tillsynsbegäran mail.docx", "A 53309-2023")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/fåglar/A 53309-2023 prioriterade fågelarter.docx", "A 53309-2023")</f>
         <v/>
       </c>
     </row>
@@ -1203,7 +1203,7 @@
         <v>45776</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1288,14 +1288,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 64829-2023</t>
+          <t>A 53264-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45281</v>
+        <v>45222</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1308,16 +1308,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>31.7</v>
+        <v>100.3</v>
       </c>
       <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1342,268 +1342,268 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Plattlummer
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 53264-2023 artfynd.xlsx", "A 53264-2023")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 53264-2023 karta.png", "A 53264-2023")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 53264-2023 FSC-klagomål.docx", "A 53264-2023")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 53264-2023 FSC-klagomål mail.docx", "A 53264-2023")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 53264-2023 tillsynsbegäran.docx", "A 53264-2023")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 53264-2023 tillsynsbegäran mail.docx", "A 53264-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 4367-2024</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45326</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Granticka
+Tallticka</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 4367-2024 artfynd.xlsx", "A 4367-2024")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 4367-2024 karta.png", "A 4367-2024")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 4367-2024 FSC-klagomål.docx", "A 4367-2024")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 4367-2024 FSC-klagomål mail.docx", "A 4367-2024")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 4367-2024 tillsynsbegäran.docx", "A 4367-2024")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 4367-2024 tillsynsbegäran mail.docx", "A 4367-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 64829-2023</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45281</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Månlåsbräken
 Mattlummer</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 64829-2023 artfynd.xlsx", "A 64829-2023")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 64829-2023 karta.png", "A 64829-2023")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 64829-2023 FSC-klagomål.docx", "A 64829-2023")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 64829-2023 FSC-klagomål mail.docx", "A 64829-2023")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 64829-2023 tillsynsbegäran.docx", "A 64829-2023")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 64829-2023 tillsynsbegäran mail.docx", "A 64829-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 4367-2024</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45326</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 53264-2023</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45222</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="H12" t="n">
         <v>2</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>2</v>
       </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Granticka
-Tallticka</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 4367-2024 artfynd.xlsx", "A 4367-2024")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 4367-2024 karta.png", "A 4367-2024")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 4367-2024 FSC-klagomål.docx", "A 4367-2024")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 4367-2024 FSC-klagomål mail.docx", "A 4367-2024")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 4367-2024 tillsynsbegäran.docx", "A 4367-2024")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 4367-2024 tillsynsbegäran mail.docx", "A 4367-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 53264-2023</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45222</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Plattlummer
 Revlummer</t>
         </is>
       </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 53264-2023 artfynd.xlsx", "A 53264-2023")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 53264-2023 karta.png", "A 53264-2023")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 53264-2023 FSC-klagomål.docx", "A 53264-2023")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 53264-2023 FSC-klagomål mail.docx", "A 53264-2023")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 53264-2023 tillsynsbegäran.docx", "A 53264-2023")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 53264-2023 tillsynsbegäran mail.docx", "A 53264-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 53264-2023</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45222</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Plattlummer
-Revlummer</t>
-        </is>
-      </c>
       <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 53264-2023 artfynd.xlsx", "A 53264-2023")</f>
         <v/>
@@ -1639,7 +1639,7 @@
         <v>44844</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1722,14 +1722,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 22495-2024</t>
+          <t>A 17740-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45447</v>
+        <v>45035</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1741,8 +1741,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>7.1</v>
+        <v>20.1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1751,10 +1756,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1769,52 +1774,52 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Tajgafältmätare</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 22495-2024 artfynd.xlsx", "A 22495-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 17740-2023 artfynd.xlsx", "A 17740-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 22495-2024 karta.png", "A 22495-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 17740-2023 karta.png", "A 17740-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 22495-2024 FSC-klagomål.docx", "A 22495-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 17740-2023 FSC-klagomål.docx", "A 17740-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 22495-2024 FSC-klagomål mail.docx", "A 22495-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 17740-2023 FSC-klagomål mail.docx", "A 17740-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 22495-2024 tillsynsbegäran.docx", "A 22495-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 17740-2023 tillsynsbegäran.docx", "A 17740-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 22495-2024 tillsynsbegäran mail.docx", "A 22495-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 17740-2023 tillsynsbegäran mail.docx", "A 17740-2023")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 17740-2023</t>
+          <t>A 22495-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45035</v>
+        <v>45447</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1826,13 +1831,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>20.1</v>
+        <v>7.1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1841,10 +1841,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1859,38 +1859,38 @@
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Tajgafältmätare</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 17740-2023 artfynd.xlsx", "A 17740-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 22495-2024 artfynd.xlsx", "A 22495-2024")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 17740-2023 karta.png", "A 17740-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 22495-2024 karta.png", "A 22495-2024")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 17740-2023 FSC-klagomål.docx", "A 17740-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 22495-2024 FSC-klagomål.docx", "A 22495-2024")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 17740-2023 FSC-klagomål mail.docx", "A 17740-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 22495-2024 FSC-klagomål mail.docx", "A 22495-2024")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 17740-2023 tillsynsbegäran.docx", "A 17740-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 22495-2024 tillsynsbegäran.docx", "A 22495-2024")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 17740-2023 tillsynsbegäran mail.docx", "A 17740-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 22495-2024 tillsynsbegäran mail.docx", "A 22495-2024")</f>
         <v/>
       </c>
     </row>
@@ -1904,7 +1904,7 @@
         <v>45779</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>44375</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>44340</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>44375</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>44840</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>44260</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>44375</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>44875</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>44340</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>44623</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>44623.92326388889</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2562,14 +2562,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 22494-2024</t>
+          <t>A 20578-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45447</v>
+        <v>45775</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2581,8 +2581,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>6</v>
+        <v>12.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2619,14 +2624,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 9605-2024</t>
+          <t>A 58860-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45361.44230324074</v>
+        <v>44896</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2639,7 +2644,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>8.4</v>
+        <v>0.3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2676,14 +2681,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 9069-2023</t>
+          <t>A 20581-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44979</v>
+        <v>45775</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2697,7 +2702,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -2738,14 +2743,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 5411-2024</t>
+          <t>A 39247-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45331</v>
+        <v>45162</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2758,7 +2763,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.9</v>
+        <v>11.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2795,14 +2800,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 18712-2025</t>
+          <t>A 61066-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45763</v>
+        <v>45645.49744212963</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2815,7 +2820,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>66.5</v>
+        <v>4.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2852,14 +2857,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 29932-2021</t>
+          <t>A 62460-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44362</v>
+        <v>44916</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2872,7 +2877,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>9.1</v>
+        <v>13.4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2909,14 +2914,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 5842-2023</t>
+          <t>A 60064-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44958</v>
+        <v>45258.3846412037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2929,7 +2934,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.9</v>
+        <v>19.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2966,14 +2971,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 62439-2022</t>
+          <t>A 36939-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44916</v>
+        <v>44805</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2986,7 +2991,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3023,14 +3028,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 20558-2025</t>
+          <t>A 50590-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45775</v>
+        <v>45217.40167824074</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3043,7 +3048,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>23.3</v>
+        <v>1.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3080,14 +3085,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 22504-2024</t>
+          <t>A 2660-2026</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45447</v>
+        <v>46037</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3100,7 +3105,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>15.6</v>
+        <v>1.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3137,14 +3142,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 5476-2024</t>
+          <t>A 148-2026</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45333</v>
+        <v>46024.6446875</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3157,7 +3162,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.8</v>
+        <v>10.2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3194,14 +3199,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 38577-2024</t>
+          <t>A 21112-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45546</v>
+        <v>45777</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3214,7 +3219,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>39.8</v>
+        <v>7.2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3251,14 +3256,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 13526-2024</t>
+          <t>A 18698-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45387</v>
+        <v>45763</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3271,7 +3276,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>8.199999999999999</v>
+        <v>29.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3308,14 +3313,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 39247-2023</t>
+          <t>A 33183-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45162</v>
+        <v>45840.59206018518</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3328,7 +3333,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>11.7</v>
+        <v>2.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3365,14 +3370,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 18721-2024</t>
+          <t>A 34663-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45426</v>
+        <v>45848.37454861111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3385,7 +3390,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>62.1</v>
+        <v>5.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3422,14 +3427,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 16024-2024</t>
+          <t>A 34664-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45405</v>
+        <v>45848.37857638889</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3442,7 +3447,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.3</v>
+        <v>8.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3479,14 +3484,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 20744-2024</t>
+          <t>A 5533-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45436</v>
+        <v>45334</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3499,7 +3504,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>9.699999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3536,14 +3541,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 9068-2023</t>
+          <t>A 9605-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44979</v>
+        <v>45361.44230324074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3555,13 +3560,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>4.6</v>
+        <v>8.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3598,14 +3598,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 23469-2022</t>
+          <t>A 5411-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44721</v>
+        <v>45331</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>11.8</v>
+        <v>3.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3655,14 +3655,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 62452-2022</t>
+          <t>A 28707-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44916</v>
+        <v>44748</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3675,7 +3675,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>7.2</v>
+        <v>15.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3712,14 +3712,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 62460-2022</t>
+          <t>A 9068-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44916</v>
+        <v>44979</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3731,8 +3731,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>13.4</v>
+        <v>4.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3769,14 +3774,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 18737-2023</t>
+          <t>A 93-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45042</v>
+        <v>45293</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3788,13 +3793,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>10.7</v>
+        <v>0.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3831,14 +3831,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 33183-2025</t>
+          <t>A 39271-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45840.59206018518</v>
+        <v>45162</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.8</v>
+        <v>51.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3888,14 +3888,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 18738-2022</t>
+          <t>A 18712-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44687</v>
+        <v>45763</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.5</v>
+        <v>66.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3945,14 +3945,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 34664-2025</t>
+          <t>A 56168-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45848.37857638889</v>
+        <v>45236</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3964,8 +3964,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>8.4</v>
+        <v>6.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4002,14 +4007,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 34663-2025</t>
+          <t>A 22494-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45848.37454861111</v>
+        <v>45447</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4022,7 +4027,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4059,14 +4064,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 20581-2025</t>
+          <t>A 50338-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45775</v>
+        <v>45944.52140046296</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4080,11 +4085,11 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4</v>
+        <v>22.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4121,14 +4126,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 47730-2024</t>
+          <t>A 16024-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45588</v>
+        <v>45405</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4140,13 +4145,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4183,14 +4183,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 36939-2022</t>
+          <t>A 20893-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44805</v>
+        <v>45776</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.1</v>
+        <v>27.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4240,14 +4240,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 28707-2022</t>
+          <t>A 21184-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44748</v>
+        <v>45777</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4260,7 +4260,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>15.2</v>
+        <v>20.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4297,14 +4297,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 39006-2023</t>
+          <t>A 47730-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45162</v>
+        <v>45588</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4316,8 +4316,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4354,14 +4359,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 39271-2023</t>
+          <t>A 9069-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45162</v>
+        <v>44979</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4373,8 +4378,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>51.9</v>
+        <v>4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4411,14 +4421,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 20578-2025</t>
+          <t>A 20558-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
         <v>45775</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4430,13 +4440,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>12.5</v>
+        <v>23.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4473,14 +4478,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 34693-2022</t>
+          <t>A 39006-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44795</v>
+        <v>45162</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4493,7 +4498,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>12.3</v>
+        <v>1.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4530,14 +4535,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 58860-2022</t>
+          <t>A 2664-2026</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44896</v>
+        <v>46037.64078703704</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4550,7 +4555,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.3</v>
+        <v>31.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4587,14 +4592,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 93-2024</t>
+          <t>A 20744-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45293</v>
+        <v>45436</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4607,7 +4612,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4644,14 +4649,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 18698-2025</t>
+          <t>A 2658-2026</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45763</v>
+        <v>46037.63512731482</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4664,7 +4669,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>29.7</v>
+        <v>22.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4701,14 +4706,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 21112-2025</t>
+          <t>A 49704-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45777</v>
+        <v>45596</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4721,7 +4726,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>7.2</v>
+        <v>17.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4758,14 +4763,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 5533-2024</t>
+          <t>A 22491-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45334</v>
+        <v>45447</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4778,7 +4783,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.4</v>
+        <v>9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4815,14 +4820,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 56168-2023</t>
+          <t>A 18737-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45236</v>
+        <v>45042</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4840,7 +4845,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>6.6</v>
+        <v>10.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4884,7 +4889,7 @@
         <v>45708</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4939,14 +4944,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 41127-2023</t>
+          <t>A 22504-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45173</v>
+        <v>45447</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4958,13 +4963,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>1.3</v>
+        <v>15.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5001,14 +5001,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 20764-2025</t>
+          <t>A 29932-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45776</v>
+        <v>44362</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5020,13 +5020,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>1.2</v>
+        <v>9.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5063,14 +5058,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 20770-2025</t>
+          <t>A 62452-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45776</v>
+        <v>44916</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5082,13 +5077,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>5.5</v>
+        <v>7.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5125,14 +5115,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 50338-2025</t>
+          <t>A 38577-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45944.52140046296</v>
+        <v>45546</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5144,13 +5134,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>22.6</v>
+        <v>39.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5187,14 +5172,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 61066-2024</t>
+          <t>A 5842-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45645.49744212963</v>
+        <v>44958</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5207,7 +5192,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5244,14 +5229,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 50590-2023</t>
+          <t>A 23469-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45217.40167824074</v>
+        <v>44721</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5264,7 +5249,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.3</v>
+        <v>11.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5301,14 +5286,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 60064-2023</t>
+          <t>A 18738-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45258.3846412037</v>
+        <v>44687</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5321,7 +5306,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>19.8</v>
+        <v>1.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5358,14 +5343,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 21184-2025</t>
+          <t>A 5476-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45777</v>
+        <v>45333</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5378,7 +5363,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>20.1</v>
+        <v>1.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5415,14 +5400,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 20893-2025</t>
+          <t>A 34693-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45776</v>
+        <v>44795</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5435,7 +5420,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>27.3</v>
+        <v>12.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5472,14 +5457,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 148-2026</t>
+          <t>A 41127-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>46024.6446875</v>
+        <v>45173</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5491,8 +5476,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>10.2</v>
+        <v>1.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5529,14 +5519,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 2658-2026</t>
+          <t>A 18721-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>46037.63512731482</v>
+        <v>45426</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5549,7 +5539,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>22.5</v>
+        <v>62.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5586,14 +5576,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 2664-2026</t>
+          <t>A 13526-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>46037.64078703704</v>
+        <v>45387</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5606,7 +5596,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>31.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5643,14 +5633,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 49704-2024</t>
+          <t>A 62439-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45596</v>
+        <v>44916</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5663,7 +5653,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>17.4</v>
+        <v>3.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5700,14 +5690,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 22491-2024</t>
+          <t>A 20764-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45447</v>
+        <v>45776</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5719,8 +5709,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>9</v>
+        <v>1.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5757,14 +5752,14 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 2660-2026</t>
+          <t>A 20770-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>46037</v>
+        <v>45776</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5776,8 +5771,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>1.1</v>
+        <v>5.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>

--- a/Översikt KIRUNA.xlsx
+++ b/Översikt KIRUNA.xlsx
@@ -575,7 +575,7 @@
         <v>44624</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
         <v>45426</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>46000</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>45775</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>45229</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>45035</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>45776</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>45222</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1374,14 +1374,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 4367-2024</t>
+          <t>A 53264-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45326</v>
+        <v>45222</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1394,16 +1394,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>7.5</v>
+        <v>100.3</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1428,204 +1428,204 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
+          <t>Plattlummer
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 53264-2023 artfynd.xlsx", "A 53264-2023")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 53264-2023 karta.png", "A 53264-2023")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 53264-2023 FSC-klagomål.docx", "A 53264-2023")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 53264-2023 FSC-klagomål mail.docx", "A 53264-2023")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 53264-2023 tillsynsbegäran.docx", "A 53264-2023")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 53264-2023 tillsynsbegäran mail.docx", "A 53264-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 4367-2024</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45326</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Granticka
 Tallticka</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 4367-2024 artfynd.xlsx", "A 4367-2024")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 4367-2024 karta.png", "A 4367-2024")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 4367-2024 FSC-klagomål.docx", "A 4367-2024")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 4367-2024 FSC-klagomål mail.docx", "A 4367-2024")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 4367-2024 tillsynsbegäran.docx", "A 4367-2024")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 4367-2024 tillsynsbegäran mail.docx", "A 4367-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 64829-2023</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>45281</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+      <c r="C12" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>31.7</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>2</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Månlåsbräken
 Mattlummer</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 64829-2023 artfynd.xlsx", "A 64829-2023")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 64829-2023 karta.png", "A 64829-2023")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 64829-2023 FSC-klagomål.docx", "A 64829-2023")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 64829-2023 FSC-klagomål mail.docx", "A 64829-2023")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 64829-2023 tillsynsbegäran.docx", "A 64829-2023")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 64829-2023 tillsynsbegäran mail.docx", "A 64829-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 53264-2023</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45222</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Plattlummer
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 53264-2023 artfynd.xlsx", "A 53264-2023")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 53264-2023 karta.png", "A 53264-2023")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 53264-2023 FSC-klagomål.docx", "A 53264-2023")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 53264-2023 FSC-klagomål mail.docx", "A 53264-2023")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 53264-2023 tillsynsbegäran.docx", "A 53264-2023")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 53264-2023 tillsynsbegäran mail.docx", "A 53264-2023")</f>
         <v/>
       </c>
     </row>
@@ -1639,7 +1639,7 @@
         <v>44844</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>45035</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>45447</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>45779</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>44375</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>44340</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>44375</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>44840</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>44260</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>44375</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>44875</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>44340</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>44623</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>44623.92326388889</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>45775</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>44896</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>45775</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>45162</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>45645.49744212963</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2857,14 +2857,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 62460-2022</t>
+          <t>A 21112-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44916</v>
+        <v>45777</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>13.4</v>
+        <v>7.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2914,14 +2914,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 60064-2023</t>
+          <t>A 18698-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45258.3846412037</v>
+        <v>45763</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>19.8</v>
+        <v>29.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2971,14 +2971,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 36939-2022</t>
+          <t>A 60064-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44805</v>
+        <v>45258.3846412037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.1</v>
+        <v>19.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3028,14 +3028,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 50590-2023</t>
+          <t>A 62460-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45217.40167824074</v>
+        <v>44916</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.3</v>
+        <v>13.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3085,14 +3085,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 2660-2026</t>
+          <t>A 50590-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>46037</v>
+        <v>45217.40167824074</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3142,14 +3142,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 148-2026</t>
+          <t>A 36939-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>46024.6446875</v>
+        <v>44805</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>10.2</v>
+        <v>3.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3199,14 +3199,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 21112-2025</t>
+          <t>A 49704-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45777</v>
+        <v>45596</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>7.2</v>
+        <v>17.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3256,14 +3256,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 18698-2025</t>
+          <t>A 22491-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45763</v>
+        <v>45447</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>29.7</v>
+        <v>9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>45840.59206018518</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>45848.37454861111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>45848.37857638889</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3484,14 +3484,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 5533-2024</t>
+          <t>A 50338-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45334</v>
+        <v>45944.52140046296</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3503,8 +3503,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>2.4</v>
+        <v>22.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3541,14 +3546,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 9605-2024</t>
+          <t>A 5533-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45361.44230324074</v>
+        <v>45334</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3561,7 +3566,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>8.4</v>
+        <v>2.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3598,14 +3603,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 5411-2024</t>
+          <t>A 9605-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45331</v>
+        <v>45361.44230324074</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3618,7 +3623,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.9</v>
+        <v>8.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3655,14 +3660,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 28707-2022</t>
+          <t>A 5411-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44748</v>
+        <v>45331</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3675,7 +3680,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>15.2</v>
+        <v>3.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3712,14 +3717,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 9068-2023</t>
+          <t>A 28707-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44979</v>
+        <v>44748</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3731,13 +3736,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>4.6</v>
+        <v>15.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3774,14 +3774,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 93-2024</t>
+          <t>A 9068-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45293</v>
+        <v>44979</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3793,8 +3793,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>0.8</v>
+        <v>4.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3831,14 +3836,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 39271-2023</t>
+          <t>A 93-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45162</v>
+        <v>45293</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3851,7 +3856,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>51.9</v>
+        <v>0.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3888,14 +3893,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 18712-2025</t>
+          <t>A 20893-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45763</v>
+        <v>45776</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3908,7 +3913,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>66.5</v>
+        <v>27.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3945,14 +3950,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 56168-2023</t>
+          <t>A 21184-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45236</v>
+        <v>45777</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3964,13 +3969,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>6.6</v>
+        <v>20.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4007,14 +4007,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 22494-2024</t>
+          <t>A 39271-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45447</v>
+        <v>45162</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>6</v>
+        <v>51.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4064,14 +4064,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 50338-2025</t>
+          <t>A 2660-2026</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45944.52140046296</v>
+        <v>46037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4083,13 +4083,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>22.6</v>
+        <v>1.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4126,14 +4121,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 16024-2024</t>
+          <t>A 148-2026</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45405</v>
+        <v>46024.6446875</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4146,7 +4141,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.3</v>
+        <v>10.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4183,14 +4178,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 20893-2025</t>
+          <t>A 18712-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45776</v>
+        <v>45763</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4203,7 +4198,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>27.3</v>
+        <v>66.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4240,14 +4235,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 21184-2025</t>
+          <t>A 56168-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45777</v>
+        <v>45236</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4259,8 +4254,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>20.1</v>
+        <v>6.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4297,14 +4297,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 47730-2024</t>
+          <t>A 22494-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45588</v>
+        <v>45447</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4316,13 +4316,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>3.7</v>
+        <v>6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4359,14 +4354,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 9069-2023</t>
+          <t>A 2664-2026</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44979</v>
+        <v>46037.64078703704</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4378,13 +4373,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>4</v>
+        <v>31.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4421,14 +4411,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 20558-2025</t>
+          <t>A 2658-2026</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45775</v>
+        <v>46037.63512731482</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4441,7 +4431,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>23.3</v>
+        <v>22.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4478,14 +4468,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 39006-2023</t>
+          <t>A 16024-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45162</v>
+        <v>45405</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4498,7 +4488,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4535,14 +4525,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 2664-2026</t>
+          <t>A 47730-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>46037.64078703704</v>
+        <v>45588</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4554,8 +4544,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>31.3</v>
+        <v>3.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4592,14 +4587,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 20744-2024</t>
+          <t>A 9069-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45436</v>
+        <v>44979</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4611,8 +4606,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>9.699999999999999</v>
+        <v>4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4649,14 +4649,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 2658-2026</t>
+          <t>A 20558-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>46037.63512731482</v>
+        <v>45775</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>22.5</v>
+        <v>23.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4706,14 +4706,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 49704-2024</t>
+          <t>A 39006-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45596</v>
+        <v>45162</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>17.4</v>
+        <v>1.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4763,14 +4763,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 22491-2024</t>
+          <t>A 20744-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45447</v>
+        <v>45436</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4827,7 +4827,7 @@
         <v>45042</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>45708</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>45447</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>44362</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>44916</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         <v>45546</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5179,7 +5179,7 @@
         <v>44958</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5236,7 +5236,7 @@
         <v>44721</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
         <v>44687</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>45333</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5407,7 +5407,7 @@
         <v>44795</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>45173</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         <v>45426</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5583,7 +5583,7 @@
         <v>45387</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>44916</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
         <v>45776</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>45776</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>

--- a/Översikt KIRUNA.xlsx
+++ b/Översikt KIRUNA.xlsx
@@ -575,7 +575,7 @@
         <v>44624</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
         <v>45426</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>46000</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>45775</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>45229</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>45035</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>45776</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>45222</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>45222</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>45326</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>45281</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>44844</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>45035</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>45447</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>45779</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>44375</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>44340</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>44375</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>44840</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>44260</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>44375</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>44875</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>44340</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>44623</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>44623.92326388889</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>45775</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>44896</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>45775</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>45162</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2800,14 +2800,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 61066-2024</t>
+          <t>A 21112-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45645.49744212963</v>
+        <v>45777</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>4.5</v>
+        <v>7.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2857,14 +2857,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 21112-2025</t>
+          <t>A 18698-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45777</v>
+        <v>45763</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>7.2</v>
+        <v>29.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2914,14 +2914,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 18698-2025</t>
+          <t>A 61066-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45763</v>
+        <v>45645.49744212963</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>29.7</v>
+        <v>4.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2978,7 +2978,7 @@
         <v>45258.3846412037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3028,14 +3028,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 62460-2022</t>
+          <t>A 50590-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44916</v>
+        <v>45217.40167824074</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>13.4</v>
+        <v>1.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3085,14 +3085,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 50590-2023</t>
+          <t>A 62460-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45217.40167824074</v>
+        <v>44916</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.3</v>
+        <v>13.4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3149,7 +3149,7 @@
         <v>44805</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3199,14 +3199,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 49704-2024</t>
+          <t>A 33183-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45596</v>
+        <v>45840.59206018518</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>17.4</v>
+        <v>2.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3256,14 +3256,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 22491-2024</t>
+          <t>A 34663-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45447</v>
+        <v>45848.37454861111</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>9</v>
+        <v>5.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3313,14 +3313,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 33183-2025</t>
+          <t>A 50338-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45840.59206018518</v>
+        <v>45944.52140046296</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3332,8 +3332,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>2.8</v>
+        <v>22.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3370,14 +3375,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 34663-2025</t>
+          <t>A 34664-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45848.37454861111</v>
+        <v>45848.37857638889</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3390,7 +3395,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>5.1</v>
+        <v>8.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3427,14 +3432,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 34664-2025</t>
+          <t>A 5533-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45848.37857638889</v>
+        <v>45334</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3447,7 +3452,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>8.4</v>
+        <v>2.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3484,14 +3489,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 50338-2025</t>
+          <t>A 9605-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45944.52140046296</v>
+        <v>45361.44230324074</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3503,13 +3508,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>22.6</v>
+        <v>8.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3546,14 +3546,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 5533-2024</t>
+          <t>A 5411-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45334</v>
+        <v>45331</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3603,14 +3603,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 9605-2024</t>
+          <t>A 28707-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45361.44230324074</v>
+        <v>44748</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>8.4</v>
+        <v>15.2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3660,14 +3660,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 5411-2024</t>
+          <t>A 20893-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45331</v>
+        <v>45776</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.9</v>
+        <v>27.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3717,14 +3717,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 28707-2022</t>
+          <t>A 21184-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44748</v>
+        <v>45777</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>15.2</v>
+        <v>20.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3781,7 +3781,7 @@
         <v>44979</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
         <v>45293</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3893,14 +3893,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 20893-2025</t>
+          <t>A 2664-2026</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45776</v>
+        <v>46037.64078703704</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>27.3</v>
+        <v>31.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3950,14 +3950,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 21184-2025</t>
+          <t>A 39271-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45777</v>
+        <v>45162</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>20.1</v>
+        <v>51.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4007,14 +4007,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 39271-2023</t>
+          <t>A 2658-2026</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45162</v>
+        <v>46037.63512731482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>51.9</v>
+        <v>22.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4064,14 +4064,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 2660-2026</t>
+          <t>A 18712-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>46037</v>
+        <v>45763</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.1</v>
+        <v>66.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4121,14 +4121,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 148-2026</t>
+          <t>A 56168-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>46024.6446875</v>
+        <v>45236</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4140,8 +4140,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>10.2</v>
+        <v>6.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4178,14 +4183,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 18712-2025</t>
+          <t>A 22494-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45763</v>
+        <v>45447</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4198,7 +4203,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>66.5</v>
+        <v>6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4235,14 +4240,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 56168-2023</t>
+          <t>A 49704-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45236</v>
+        <v>45596</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4254,13 +4259,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>6.6</v>
+        <v>17.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4297,14 +4297,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 22494-2024</t>
+          <t>A 22491-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
         <v>45447</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4354,14 +4354,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 2664-2026</t>
+          <t>A 16024-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>46037.64078703704</v>
+        <v>45405</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>31.3</v>
+        <v>2.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4411,14 +4411,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 2658-2026</t>
+          <t>A 2660-2026</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>46037.63512731482</v>
+        <v>46037</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>22.5</v>
+        <v>1.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4468,14 +4468,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 16024-2024</t>
+          <t>A 47730-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45405</v>
+        <v>45588</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4487,8 +4487,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4525,14 +4530,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 47730-2024</t>
+          <t>A 148-2026</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45588</v>
+        <v>46024.6446875</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4544,13 +4549,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>3.7</v>
+        <v>10.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4594,7 +4594,7 @@
         <v>44979</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>45775</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>45162</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>45436</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>45042</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>45708</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>45447</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>44362</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>44916</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         <v>45546</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5179,7 +5179,7 @@
         <v>44958</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5236,7 +5236,7 @@
         <v>44721</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
         <v>44687</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>45333</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5407,7 +5407,7 @@
         <v>44795</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>45173</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         <v>45426</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5583,7 +5583,7 @@
         <v>45387</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>44916</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
         <v>45776</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>45776</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>

--- a/Översikt KIRUNA.xlsx
+++ b/Översikt KIRUNA.xlsx
@@ -575,7 +575,7 @@
         <v>44624</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
         <v>45426</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>46000</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>45775</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1013,14 +1013,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 53309-2023</t>
+          <t>A 17705-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45229</v>
+        <v>45035</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,20 +1032,25 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G6" t="n">
-        <v>1.6</v>
+        <v>58.9</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1057,231 +1062,226 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
         <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>3</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Fläckporing
+Orange taggsvamp
+Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 17705-2023 artfynd.xlsx", "A 17705-2023")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 17705-2023 karta.png", "A 17705-2023")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 17705-2023 FSC-klagomål.docx", "A 17705-2023")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 17705-2023 FSC-klagomål mail.docx", "A 17705-2023")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 17705-2023 tillsynsbegäran.docx", "A 17705-2023")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 17705-2023 tillsynsbegäran mail.docx", "A 17705-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 20780-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45776</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Garnlav
+Lappranunkel
+Stuplav</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 20780-2025 artfynd.xlsx", "A 20780-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 20780-2025 karta.png", "A 20780-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 20780-2025 FSC-klagomål.docx", "A 20780-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 20780-2025 FSC-klagomål mail.docx", "A 20780-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 20780-2025 tillsynsbegäran.docx", "A 20780-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 20780-2025 tillsynsbegäran mail.docx", "A 20780-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 53309-2023</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45229</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Havsörn
 Fiskgjuse
 Grönsiska</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 53309-2023 artfynd.xlsx", "A 53309-2023")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 53309-2023 karta.png", "A 53309-2023")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 53309-2023 FSC-klagomål.docx", "A 53309-2023")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 53309-2023 FSC-klagomål mail.docx", "A 53309-2023")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 53309-2023 tillsynsbegäran.docx", "A 53309-2023")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 53309-2023 tillsynsbegäran mail.docx", "A 53309-2023")</f>
         <v/>
       </c>
-      <c r="Z6">
+      <c r="Z8">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/fåglar/A 53309-2023 prioriterade fågelarter.docx", "A 53309-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 17705-2023</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45035</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>58.9</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Fläckporing
-Orange taggsvamp
-Dropptaggsvamp</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 17705-2023 artfynd.xlsx", "A 17705-2023")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 17705-2023 karta.png", "A 17705-2023")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 17705-2023 FSC-klagomål.docx", "A 17705-2023")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 17705-2023 FSC-klagomål mail.docx", "A 17705-2023")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 17705-2023 tillsynsbegäran.docx", "A 17705-2023")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 17705-2023 tillsynsbegäran mail.docx", "A 17705-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 20780-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45776</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Garnlav
-Lappranunkel
-Stuplav</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 20780-2025 artfynd.xlsx", "A 20780-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 20780-2025 karta.png", "A 20780-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 20780-2025 FSC-klagomål.docx", "A 20780-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 20780-2025 FSC-klagomål mail.docx", "A 20780-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 20780-2025 tillsynsbegäran.docx", "A 20780-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 20780-2025 tillsynsbegäran mail.docx", "A 20780-2025")</f>
         <v/>
       </c>
     </row>
@@ -1295,7 +1295,7 @@
         <v>45222</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1374,14 +1374,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 53264-2023</t>
+          <t>A 64829-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45222</v>
+        <v>45281</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1394,17 +1394,17 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>100.3</v>
+        <v>31.7</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1428,204 +1428,204 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
+          <t>Månlåsbräken
+Mattlummer</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 64829-2023 artfynd.xlsx", "A 64829-2023")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 64829-2023 karta.png", "A 64829-2023")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 64829-2023 FSC-klagomål.docx", "A 64829-2023")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 64829-2023 FSC-klagomål mail.docx", "A 64829-2023")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 64829-2023 tillsynsbegäran.docx", "A 64829-2023")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 64829-2023 tillsynsbegäran mail.docx", "A 64829-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 53264-2023</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45222</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Plattlummer
 Revlummer</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 53264-2023 artfynd.xlsx", "A 53264-2023")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 53264-2023 karta.png", "A 53264-2023")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 53264-2023 FSC-klagomål.docx", "A 53264-2023")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 53264-2023 FSC-klagomål mail.docx", "A 53264-2023")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 53264-2023 tillsynsbegäran.docx", "A 53264-2023")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 53264-2023 tillsynsbegäran mail.docx", "A 53264-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 4367-2024</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>45326</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+      <c r="C12" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>7.5</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>2</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>2</v>
       </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>2</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Granticka
 Tallticka</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 4367-2024 artfynd.xlsx", "A 4367-2024")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 4367-2024 karta.png", "A 4367-2024")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 4367-2024 FSC-klagomål.docx", "A 4367-2024")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 4367-2024 FSC-klagomål mail.docx", "A 4367-2024")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 4367-2024 tillsynsbegäran.docx", "A 4367-2024")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 4367-2024 tillsynsbegäran mail.docx", "A 4367-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 64829-2023</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45281</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Månlåsbräken
-Mattlummer</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 64829-2023 artfynd.xlsx", "A 64829-2023")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 64829-2023 karta.png", "A 64829-2023")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 64829-2023 FSC-klagomål.docx", "A 64829-2023")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 64829-2023 FSC-klagomål mail.docx", "A 64829-2023")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 64829-2023 tillsynsbegäran.docx", "A 64829-2023")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 64829-2023 tillsynsbegäran mail.docx", "A 64829-2023")</f>
         <v/>
       </c>
     </row>
@@ -1639,7 +1639,7 @@
         <v>44844</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>45035</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1812,14 +1812,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 22495-2024</t>
+          <t>A 21183-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45447</v>
+        <v>45779</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1832,19 +1832,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>7.1</v>
+        <v>31.9</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1859,52 +1859,52 @@
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Tajgafältmätare</t>
+          <t>Venhavre</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 22495-2024 artfynd.xlsx", "A 22495-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 21183-2025 artfynd.xlsx", "A 21183-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 22495-2024 karta.png", "A 22495-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 21183-2025 karta.png", "A 21183-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 22495-2024 FSC-klagomål.docx", "A 22495-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 21183-2025 FSC-klagomål.docx", "A 21183-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 22495-2024 FSC-klagomål mail.docx", "A 22495-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 21183-2025 FSC-klagomål mail.docx", "A 21183-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 22495-2024 tillsynsbegäran.docx", "A 22495-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 21183-2025 tillsynsbegäran.docx", "A 21183-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 22495-2024 tillsynsbegäran mail.docx", "A 22495-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 21183-2025 tillsynsbegäran mail.docx", "A 21183-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 21183-2025</t>
+          <t>A 22495-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45779</v>
+        <v>45447</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1917,19 +1917,19 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>31.9</v>
+        <v>7.1</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1944,38 +1944,38 @@
         <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Venhavre</t>
+          <t>Tajgafältmätare</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 21183-2025 artfynd.xlsx", "A 21183-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 22495-2024 artfynd.xlsx", "A 22495-2024")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 21183-2025 karta.png", "A 21183-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 22495-2024 karta.png", "A 22495-2024")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 21183-2025 FSC-klagomål.docx", "A 21183-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 22495-2024 FSC-klagomål.docx", "A 22495-2024")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 21183-2025 FSC-klagomål mail.docx", "A 21183-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 22495-2024 FSC-klagomål mail.docx", "A 22495-2024")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 21183-2025 tillsynsbegäran.docx", "A 21183-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 22495-2024 tillsynsbegäran.docx", "A 22495-2024")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 21183-2025 tillsynsbegäran mail.docx", "A 21183-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 22495-2024 tillsynsbegäran mail.docx", "A 22495-2024")</f>
         <v/>
       </c>
     </row>
@@ -1989,7 +1989,7 @@
         <v>44375</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>44340</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>44375</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>44840</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>44260</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>44375</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>44875</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>44340</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>44623</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>44623.92326388889</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2562,14 +2562,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 20578-2025</t>
+          <t>A 9605-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45775</v>
+        <v>45361.44230324074</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2581,13 +2581,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G27" t="n">
-        <v>12.5</v>
+        <v>8.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2624,14 +2619,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 58860-2022</t>
+          <t>A 5411-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44896</v>
+        <v>45331</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2644,7 +2639,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.3</v>
+        <v>3.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2681,14 +2676,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 20581-2025</t>
+          <t>A 20764-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45775</v>
+        <v>45776</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2706,7 +2701,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2743,14 +2738,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 39247-2023</t>
+          <t>A 20770-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45162</v>
+        <v>45776</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2762,8 +2757,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>11.7</v>
+        <v>5.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2800,14 +2800,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 21112-2025</t>
+          <t>A 18698-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45777</v>
+        <v>45763</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>7.2</v>
+        <v>29.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2857,14 +2857,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 18698-2025</t>
+          <t>A 21112-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45763</v>
+        <v>45777</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>29.7</v>
+        <v>7.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>45645.49744212963</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2971,14 +2971,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 60064-2023</t>
+          <t>A 50338-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45258.3846412037</v>
+        <v>45944.52140046296</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2990,8 +2990,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>19.8</v>
+        <v>22.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3028,14 +3033,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 50590-2023</t>
+          <t>A 22494-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45217.40167824074</v>
+        <v>45447</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3048,7 +3053,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3085,14 +3090,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 62460-2022</t>
+          <t>A 50590-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44916</v>
+        <v>45217.40167824074</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3105,7 +3110,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>13.4</v>
+        <v>1.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3142,14 +3147,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 36939-2022</t>
+          <t>A 60064-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44805</v>
+        <v>45258.3846412037</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3162,7 +3167,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.1</v>
+        <v>19.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3199,14 +3204,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 33183-2025</t>
+          <t>A 9069-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45840.59206018518</v>
+        <v>44979</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3218,8 +3223,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3256,14 +3266,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 34663-2025</t>
+          <t>A 21184-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45848.37454861111</v>
+        <v>45777</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3276,7 +3286,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>5.1</v>
+        <v>20.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3313,14 +3323,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 50338-2025</t>
+          <t>A 20893-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45944.52140046296</v>
+        <v>45776</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3332,13 +3342,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G40" t="n">
-        <v>22.6</v>
+        <v>27.3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3375,14 +3380,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 34664-2025</t>
+          <t>A 29932-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45848.37857638889</v>
+        <v>44362</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3395,7 +3400,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>8.4</v>
+        <v>9.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3432,14 +3437,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 5533-2024</t>
+          <t>A 62439-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45334</v>
+        <v>44916</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3452,7 +3457,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3489,14 +3494,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 9605-2024</t>
+          <t>A 22504-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45361.44230324074</v>
+        <v>45447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3509,7 +3514,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>8.4</v>
+        <v>15.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3546,14 +3551,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 5411-2024</t>
+          <t>A 5476-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45331</v>
+        <v>45333</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3566,7 +3571,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3603,14 +3608,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 28707-2022</t>
+          <t>A 18721-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44748</v>
+        <v>45426</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3623,7 +3628,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>15.2</v>
+        <v>62.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3660,14 +3665,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 20893-2025</t>
+          <t>A 33183-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45776</v>
+        <v>45840.59206018518</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3680,7 +3685,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>27.3</v>
+        <v>2.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3717,14 +3722,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 21184-2025</t>
+          <t>A 34664-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45777</v>
+        <v>45848.37857638889</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3737,7 +3742,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>20.1</v>
+        <v>8.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3774,14 +3779,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 9068-2023</t>
+          <t>A 34663-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44979</v>
+        <v>45848.37454861111</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3793,13 +3798,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3836,14 +3836,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 93-2024</t>
+          <t>A 9068-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45293</v>
+        <v>44979</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3855,8 +3855,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>0.8</v>
+        <v>4.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3893,14 +3898,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 2664-2026</t>
+          <t>A 2658-2026</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>46037.64078703704</v>
+        <v>46037.63512731482</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3913,7 +3918,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>31.3</v>
+        <v>22.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3950,14 +3955,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 39271-2023</t>
+          <t>A 23469-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45162</v>
+        <v>44721</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3970,7 +3975,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>51.9</v>
+        <v>11.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4007,14 +4012,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 2658-2026</t>
+          <t>A 2664-2026</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>46037.63512731482</v>
+        <v>46037.64078703704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4027,7 +4032,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>22.5</v>
+        <v>31.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4064,14 +4069,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 18712-2025</t>
+          <t>A 62452-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45763</v>
+        <v>44916</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4084,7 +4089,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>66.5</v>
+        <v>7.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4121,14 +4126,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 56168-2023</t>
+          <t>A 62460-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45236</v>
+        <v>44916</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4140,13 +4145,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>6.6</v>
+        <v>13.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4183,14 +4183,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 22494-2024</t>
+          <t>A 47730-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45447</v>
+        <v>45588</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4202,8 +4202,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>6</v>
+        <v>3.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4240,14 +4245,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 49704-2024</t>
+          <t>A 36939-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45596</v>
+        <v>44805</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4260,7 +4265,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>17.4</v>
+        <v>3.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4297,14 +4302,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 22491-2024</t>
+          <t>A 49704-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45447</v>
+        <v>45596</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4317,7 +4322,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>9</v>
+        <v>17.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4354,14 +4359,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 16024-2024</t>
+          <t>A 22491-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45405</v>
+        <v>45447</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4374,7 +4379,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.3</v>
+        <v>9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4411,14 +4416,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 2660-2026</t>
+          <t>A 18712-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>46037</v>
+        <v>45763</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4431,7 +4436,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.1</v>
+        <v>66.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4468,14 +4473,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 47730-2024</t>
+          <t>A 148-2026</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45588</v>
+        <v>46024.6446875</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4487,13 +4492,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>3.7</v>
+        <v>10.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4530,14 +4530,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 148-2026</t>
+          <t>A 5842-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>46024.6446875</v>
+        <v>44958</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>10.2</v>
+        <v>2.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4587,14 +4587,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 9069-2023</t>
+          <t>A 20558-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44979</v>
+        <v>45775</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4606,13 +4606,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>4</v>
+        <v>23.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4649,14 +4644,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 20558-2025</t>
+          <t>A 38577-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45775</v>
+        <v>45546</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4669,7 +4664,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>23.3</v>
+        <v>39.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4706,14 +4701,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 39006-2023</t>
+          <t>A 2660-2026</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45162</v>
+        <v>46037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4726,7 +4721,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4763,14 +4758,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 20744-2024</t>
+          <t>A 13526-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45436</v>
+        <v>45387</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4783,7 +4778,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>9.699999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4820,14 +4815,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 18737-2023</t>
+          <t>A 39247-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45042</v>
+        <v>45162</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4839,13 +4834,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>10.7</v>
+        <v>11.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4882,14 +4872,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 8350-2025</t>
+          <t>A 16024-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45708</v>
+        <v>45405</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4901,13 +4891,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4944,14 +4929,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 22504-2024</t>
+          <t>A 20744-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45447</v>
+        <v>45436</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4964,7 +4949,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>15.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5001,14 +4986,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 29932-2021</t>
+          <t>A 18738-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44362</v>
+        <v>44687</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5021,7 +5006,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>9.1</v>
+        <v>1.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5058,14 +5043,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 62452-2022</t>
+          <t>A 20581-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44916</v>
+        <v>45775</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5077,8 +5062,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>7.2</v>
+        <v>4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5115,14 +5105,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 38577-2024</t>
+          <t>A 28707-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45546</v>
+        <v>44748</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5135,7 +5125,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>39.8</v>
+        <v>15.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5172,14 +5162,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 5842-2023</t>
+          <t>A 39006-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44958</v>
+        <v>45162</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5192,7 +5182,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5229,14 +5219,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 23469-2022</t>
+          <t>A 39271-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44721</v>
+        <v>45162</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5249,7 +5239,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>11.8</v>
+        <v>51.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5286,14 +5276,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 18738-2022</t>
+          <t>A 20578-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44687</v>
+        <v>45775</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5305,8 +5295,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>1.5</v>
+        <v>12.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5343,14 +5338,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 5476-2024</t>
+          <t>A 58860-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45333</v>
+        <v>44896</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5363,7 +5358,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5400,14 +5395,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 34693-2022</t>
+          <t>A 93-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44795</v>
+        <v>45293</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5420,7 +5415,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>12.3</v>
+        <v>0.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5457,14 +5452,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 41127-2023</t>
+          <t>A 18737-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45173</v>
+        <v>45042</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5478,11 +5473,11 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.3</v>
+        <v>10.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5519,14 +5514,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 18721-2024</t>
+          <t>A 34693-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45426</v>
+        <v>44795</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5539,7 +5534,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>62.1</v>
+        <v>12.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5576,14 +5571,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 13526-2024</t>
+          <t>A 5533-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45387</v>
+        <v>45334</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5596,7 +5591,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>8.199999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5633,14 +5628,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 62439-2022</t>
+          <t>A 56168-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44916</v>
+        <v>45236</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5652,8 +5647,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>3.2</v>
+        <v>6.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5690,14 +5690,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 20764-2025</t>
+          <t>A 8350-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45776</v>
+        <v>45708</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5711,11 +5711,11 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5752,14 +5752,14 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 20770-2025</t>
+          <t>A 41127-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45776</v>
+        <v>45173</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5773,11 +5773,11 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>5.5</v>
+        <v>1.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>

--- a/Översikt KIRUNA.xlsx
+++ b/Översikt KIRUNA.xlsx
@@ -575,7 +575,7 @@
         <v>44624</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
         <v>45426</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>46000</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>45775</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1013,14 +1013,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 17705-2023</t>
+          <t>A 53309-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45035</v>
+        <v>45229</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,270 +1032,270 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G6" t="n">
-        <v>58.9</v>
+        <v>1.6</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>1</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>3</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Havsörn
+Fiskgjuse
+Grönsiska</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 53309-2023 artfynd.xlsx", "A 53309-2023")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 53309-2023 karta.png", "A 53309-2023")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 53309-2023 FSC-klagomål.docx", "A 53309-2023")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 53309-2023 FSC-klagomål mail.docx", "A 53309-2023")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 53309-2023 tillsynsbegäran.docx", "A 53309-2023")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 53309-2023 tillsynsbegäran mail.docx", "A 53309-2023")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/fåglar/A 53309-2023 prioriterade fågelarter.docx", "A 53309-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 17705-2023</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45035</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Fläckporing
 Orange taggsvamp
 Dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 17705-2023 artfynd.xlsx", "A 17705-2023")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 17705-2023 karta.png", "A 17705-2023")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 17705-2023 FSC-klagomål.docx", "A 17705-2023")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 17705-2023 FSC-klagomål mail.docx", "A 17705-2023")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 17705-2023 tillsynsbegäran.docx", "A 17705-2023")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 17705-2023 tillsynsbegäran mail.docx", "A 17705-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>A 20780-2025</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>45776</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="C8" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="G8" t="n">
         <v>5.7</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H8" t="n">
         <v>1</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I8" t="n">
         <v>2</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>1</v>
       </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>3</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Lappranunkel
 Stuplav</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 20780-2025 artfynd.xlsx", "A 20780-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 20780-2025 karta.png", "A 20780-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 20780-2025 FSC-klagomål.docx", "A 20780-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 20780-2025 FSC-klagomål mail.docx", "A 20780-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 20780-2025 tillsynsbegäran.docx", "A 20780-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 20780-2025 tillsynsbegäran mail.docx", "A 20780-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 53309-2023</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45229</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Havsörn
-Fiskgjuse
-Grönsiska</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 53309-2023 artfynd.xlsx", "A 53309-2023")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 53309-2023 karta.png", "A 53309-2023")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 53309-2023 FSC-klagomål.docx", "A 53309-2023")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 53309-2023 FSC-klagomål mail.docx", "A 53309-2023")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 53309-2023 tillsynsbegäran.docx", "A 53309-2023")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 53309-2023 tillsynsbegäran mail.docx", "A 53309-2023")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/fåglar/A 53309-2023 prioriterade fågelarter.docx", "A 53309-2023")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 53264-2023</t>
+          <t>A 4367-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45222</v>
+        <v>45326</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1308,17 +1308,17 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>100.3</v>
+        <v>7.5</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>2</v>
       </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1342,290 +1342,290 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Granticka
+Tallticka</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 4367-2024 artfynd.xlsx", "A 4367-2024")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 4367-2024 karta.png", "A 4367-2024")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 4367-2024 FSC-klagomål.docx", "A 4367-2024")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 4367-2024 FSC-klagomål mail.docx", "A 4367-2024")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 4367-2024 tillsynsbegäran.docx", "A 4367-2024")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 4367-2024 tillsynsbegäran mail.docx", "A 4367-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 53264-2023</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45222</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Plattlummer
 Revlummer</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 53264-2023 artfynd.xlsx", "A 53264-2023")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 53264-2023 karta.png", "A 53264-2023")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 53264-2023 FSC-klagomål.docx", "A 53264-2023")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 53264-2023 FSC-klagomål mail.docx", "A 53264-2023")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 53264-2023 tillsynsbegäran.docx", "A 53264-2023")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 53264-2023 tillsynsbegäran mail.docx", "A 53264-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 64829-2023</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>45281</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="C11" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>31.7</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>1</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>1</v>
       </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>2</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Månlåsbräken
 Mattlummer</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 64829-2023 artfynd.xlsx", "A 64829-2023")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 64829-2023 karta.png", "A 64829-2023")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 64829-2023 FSC-klagomål.docx", "A 64829-2023")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 64829-2023 FSC-klagomål mail.docx", "A 64829-2023")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 64829-2023 tillsynsbegäran.docx", "A 64829-2023")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 64829-2023 tillsynsbegäran mail.docx", "A 64829-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 53264-2023</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>45222</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+      <c r="C12" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>KIRUNA</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>100.3</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>2</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>1</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>2</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Plattlummer
 Revlummer</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 53264-2023 artfynd.xlsx", "A 53264-2023")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 53264-2023 karta.png", "A 53264-2023")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 53264-2023 FSC-klagomål.docx", "A 53264-2023")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 53264-2023 FSC-klagomål mail.docx", "A 53264-2023")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 53264-2023 tillsynsbegäran.docx", "A 53264-2023")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 53264-2023 tillsynsbegäran mail.docx", "A 53264-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 4367-2024</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45326</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>2</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Granticka
-Tallticka</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 4367-2024 artfynd.xlsx", "A 4367-2024")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 4367-2024 karta.png", "A 4367-2024")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 4367-2024 FSC-klagomål.docx", "A 4367-2024")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 4367-2024 FSC-klagomål mail.docx", "A 4367-2024")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 4367-2024 tillsynsbegäran.docx", "A 4367-2024")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 4367-2024 tillsynsbegäran mail.docx", "A 4367-2024")</f>
         <v/>
       </c>
     </row>
@@ -1639,7 +1639,7 @@
         <v>44844</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1722,14 +1722,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 17740-2023</t>
+          <t>A 22495-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45035</v>
+        <v>45447</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1741,13 +1741,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>20.1</v>
+        <v>7.1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1756,10 +1751,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1774,38 +1769,38 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Tajgafältmätare</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 17740-2023 artfynd.xlsx", "A 17740-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 22495-2024 artfynd.xlsx", "A 22495-2024")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 17740-2023 karta.png", "A 17740-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 22495-2024 karta.png", "A 22495-2024")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 17740-2023 FSC-klagomål.docx", "A 17740-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 22495-2024 FSC-klagomål.docx", "A 22495-2024")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 17740-2023 FSC-klagomål mail.docx", "A 17740-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 22495-2024 FSC-klagomål mail.docx", "A 22495-2024")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 17740-2023 tillsynsbegäran.docx", "A 17740-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 22495-2024 tillsynsbegäran.docx", "A 22495-2024")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 17740-2023 tillsynsbegäran mail.docx", "A 17740-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 22495-2024 tillsynsbegäran mail.docx", "A 22495-2024")</f>
         <v/>
       </c>
     </row>
@@ -1819,7 +1814,7 @@
         <v>45779</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1897,14 +1892,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 22495-2024</t>
+          <t>A 17740-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45447</v>
+        <v>45035</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1916,8 +1911,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>7.1</v>
+        <v>20.1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1926,10 +1926,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1944,38 +1944,38 @@
         <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Tajgafältmätare</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 22495-2024 artfynd.xlsx", "A 22495-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/artfynd/A 17740-2023 artfynd.xlsx", "A 17740-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 22495-2024 karta.png", "A 22495-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/kartor/A 17740-2023 karta.png", "A 17740-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 22495-2024 FSC-klagomål.docx", "A 22495-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomål/A 17740-2023 FSC-klagomål.docx", "A 17740-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 22495-2024 FSC-klagomål mail.docx", "A 22495-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/klagomålsmail/A 17740-2023 FSC-klagomål mail.docx", "A 17740-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 22495-2024 tillsynsbegäran.docx", "A 22495-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsyn/A 17740-2023 tillsynsbegäran.docx", "A 17740-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 22495-2024 tillsynsbegäran mail.docx", "A 22495-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_2584/tillsynsmail/A 17740-2023 tillsynsbegäran mail.docx", "A 17740-2023")</f>
         <v/>
       </c>
     </row>
@@ -1989,7 +1989,7 @@
         <v>44375</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>44340</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>44375</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>44840</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>44260</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>44375</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>44875</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>44340</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>44623</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>44623.92326388889</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2562,14 +2562,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 9605-2024</t>
+          <t>A 58860-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45361.44230324074</v>
+        <v>44896</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>8.4</v>
+        <v>0.3</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2619,14 +2619,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 5411-2024</t>
+          <t>A 20578-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45331</v>
+        <v>45775</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2638,8 +2638,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G28" t="n">
-        <v>3.9</v>
+        <v>12.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2676,14 +2681,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 20764-2025</t>
+          <t>A 20581-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2701,7 +2706,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2738,14 +2743,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 20770-2025</t>
+          <t>A 39247-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45776</v>
+        <v>45162</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2757,13 +2762,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>5.5</v>
+        <v>11.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2800,14 +2800,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 18698-2025</t>
+          <t>A 62460-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45763</v>
+        <v>44916</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>29.7</v>
+        <v>13.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2857,14 +2857,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 21112-2025</t>
+          <t>A 36939-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45777</v>
+        <v>44805</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>7.2</v>
+        <v>3.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2914,14 +2914,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 61066-2024</t>
+          <t>A 21112-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45645.49744212963</v>
+        <v>45777</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>4.5</v>
+        <v>7.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2971,14 +2971,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 50338-2025</t>
+          <t>A 18698-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45944.52140046296</v>
+        <v>45763</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2990,13 +2990,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>22.6</v>
+        <v>29.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3033,14 +3028,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 22494-2024</t>
+          <t>A 33183-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45447</v>
+        <v>45840.59206018518</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3053,7 +3048,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3090,14 +3085,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 50590-2023</t>
+          <t>A 34663-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45217.40167824074</v>
+        <v>45848.37454861111</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3110,7 +3105,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.3</v>
+        <v>5.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3147,14 +3142,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 60064-2023</t>
+          <t>A 34664-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45258.3846412037</v>
+        <v>45848.37857638889</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3167,7 +3162,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>19.8</v>
+        <v>8.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3204,14 +3199,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 9069-2023</t>
+          <t>A 5533-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44979</v>
+        <v>45334</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3223,13 +3218,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3266,14 +3256,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 21184-2025</t>
+          <t>A 9605-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45777</v>
+        <v>45361.44230324074</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3286,7 +3276,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>20.1</v>
+        <v>8.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3323,14 +3313,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 20893-2025</t>
+          <t>A 5411-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45776</v>
+        <v>45331</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3343,7 +3333,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>27.3</v>
+        <v>3.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3380,14 +3370,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 29932-2021</t>
+          <t>A 28707-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44362</v>
+        <v>44748</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3400,7 +3390,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>9.1</v>
+        <v>15.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3437,14 +3427,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 62439-2022</t>
+          <t>A 9068-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44916</v>
+        <v>44979</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3456,8 +3446,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3494,14 +3489,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 22504-2024</t>
+          <t>A 93-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45447</v>
+        <v>45293</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3514,7 +3509,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>15.6</v>
+        <v>0.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3551,14 +3546,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 5476-2024</t>
+          <t>A 39271-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45333</v>
+        <v>45162</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3571,7 +3566,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.8</v>
+        <v>51.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3608,14 +3603,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 18721-2024</t>
+          <t>A 50338-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45426</v>
+        <v>45944.52140046296</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3627,8 +3622,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>62.1</v>
+        <v>22.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3665,14 +3665,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 33183-2025</t>
+          <t>A 18712-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45840.59206018518</v>
+        <v>45763</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.8</v>
+        <v>66.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3722,14 +3722,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 34664-2025</t>
+          <t>A 56168-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45848.37857638889</v>
+        <v>45236</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3741,8 +3741,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>8.4</v>
+        <v>6.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3779,14 +3784,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 34663-2025</t>
+          <t>A 22494-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45848.37454861111</v>
+        <v>45447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3799,7 +3804,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3836,14 +3841,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 9068-2023</t>
+          <t>A 20893-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44979</v>
+        <v>45776</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3855,13 +3860,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>4.6</v>
+        <v>27.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3898,14 +3898,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 2658-2026</t>
+          <t>A 21184-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>46037.63512731482</v>
+        <v>45777</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>22.5</v>
+        <v>20.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3955,14 +3955,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 23469-2022</t>
+          <t>A 16024-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44721</v>
+        <v>45405</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>11.8</v>
+        <v>2.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>46037.64078703704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4069,14 +4069,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 62452-2022</t>
+          <t>A 47730-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44916</v>
+        <v>45588</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4088,8 +4088,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>7.2</v>
+        <v>3.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4126,14 +4131,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 62460-2022</t>
+          <t>A 2658-2026</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44916</v>
+        <v>46037.63512731482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4146,7 +4151,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>13.4</v>
+        <v>22.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4183,14 +4188,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 47730-2024</t>
+          <t>A 9069-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45588</v>
+        <v>44979</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4204,11 +4209,11 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4245,14 +4250,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 36939-2022</t>
+          <t>A 20558-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44805</v>
+        <v>45775</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4265,7 +4270,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.1</v>
+        <v>23.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4309,7 +4314,7 @@
         <v>45596</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4366,7 +4371,7 @@
         <v>45447</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4416,14 +4421,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 18712-2025</t>
+          <t>A 39006-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45763</v>
+        <v>45162</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4436,7 +4441,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>66.5</v>
+        <v>1.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4473,14 +4478,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 148-2026</t>
+          <t>A 20744-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>46024.6446875</v>
+        <v>45436</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4493,7 +4498,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>10.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4530,14 +4535,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 5842-2023</t>
+          <t>A 2660-2026</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44958</v>
+        <v>46037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4550,7 +4555,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4587,14 +4592,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 20558-2025</t>
+          <t>A 148-2026</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45775</v>
+        <v>46024.6446875</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4607,7 +4612,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>23.3</v>
+        <v>10.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4644,14 +4649,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 38577-2024</t>
+          <t>A 18737-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45546</v>
+        <v>45042</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4663,8 +4668,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>39.8</v>
+        <v>10.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4701,14 +4711,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 2660-2026</t>
+          <t>A 8350-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>46037</v>
+        <v>45708</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4720,8 +4730,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4758,14 +4773,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 13526-2024</t>
+          <t>A 22504-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45387</v>
+        <v>45447</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4778,7 +4793,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>8.199999999999999</v>
+        <v>15.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4815,14 +4830,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 39247-2023</t>
+          <t>A 29932-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45162</v>
+        <v>44362</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4835,7 +4850,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>11.7</v>
+        <v>9.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4872,14 +4887,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 16024-2024</t>
+          <t>A 62452-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45405</v>
+        <v>44916</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4892,7 +4907,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.3</v>
+        <v>7.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4929,14 +4944,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 20744-2024</t>
+          <t>A 38577-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45436</v>
+        <v>45546</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4949,7 +4964,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>9.699999999999999</v>
+        <v>39.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4986,14 +5001,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 18738-2022</t>
+          <t>A 5842-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44687</v>
+        <v>44958</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5006,7 +5021,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5043,14 +5058,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 20581-2025</t>
+          <t>A 23469-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45775</v>
+        <v>44721</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5062,13 +5077,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>4</v>
+        <v>11.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5105,14 +5115,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 28707-2022</t>
+          <t>A 18738-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44748</v>
+        <v>44687</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5125,7 +5135,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>15.2</v>
+        <v>1.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5162,14 +5172,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 39006-2023</t>
+          <t>A 5476-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45162</v>
+        <v>45333</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5182,7 +5192,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5219,14 +5229,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 39271-2023</t>
+          <t>A 34693-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45162</v>
+        <v>44795</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5239,7 +5249,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>51.9</v>
+        <v>12.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5276,14 +5286,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 20578-2025</t>
+          <t>A 41127-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45775</v>
+        <v>45173</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5297,11 +5307,11 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>12.5</v>
+        <v>1.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5338,14 +5348,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 58860-2022</t>
+          <t>A 18721-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44896</v>
+        <v>45426</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5358,7 +5368,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.3</v>
+        <v>62.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5395,14 +5405,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 93-2024</t>
+          <t>A 13526-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45293</v>
+        <v>45387</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5415,7 +5425,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5452,14 +5462,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 18737-2023</t>
+          <t>A 62439-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45042</v>
+        <v>44916</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5471,13 +5481,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>10.7</v>
+        <v>3.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5514,14 +5519,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 34693-2022</t>
+          <t>A 20764-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44795</v>
+        <v>45776</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5533,8 +5538,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>12.3</v>
+        <v>1.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5571,14 +5581,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 5533-2024</t>
+          <t>A 20770-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45334</v>
+        <v>45776</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5590,8 +5600,13 @@
           <t>KIRUNA</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5628,14 +5643,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 56168-2023</t>
+          <t>A 61066-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45236</v>
+        <v>45645.49744212963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5647,13 +5662,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>6.6</v>
+        <v>4.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5690,14 +5700,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 8350-2025</t>
+          <t>A 60064-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45708</v>
+        <v>45258.3846412037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5709,13 +5719,8 @@
           <t>KIRUNA</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>0.8</v>
+        <v>19.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5752,14 +5757,14 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 41127-2023</t>
+          <t>A 50590-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45173</v>
+        <v>45217.40167824074</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5769,11 +5774,6 @@
       <c r="E82" t="inlineStr">
         <is>
           <t>KIRUNA</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>SCA</t>
         </is>
       </c>
       <c r="G82" t="n">

--- a/Översikt KIRUNA.xlsx
+++ b/Översikt KIRUNA.xlsx
@@ -575,7 +575,7 @@
         <v>44624</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
         <v>45426</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>46000</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>45775</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>45229</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>45035</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>45776</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>45326</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>45222</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>45281</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>45222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>44844</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>45447</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>45779</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>45035</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>44375</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>44340</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>44375</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>44840</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>44260</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>44375</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>44875</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>44340</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>44623</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>44623.92326388889</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44896</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>45775</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>45775</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>45162</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>44916</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>44805</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>45777</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>45763</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>45840.59206018518</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>45848.37454861111</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>45848.37857638889</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>45334</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>45361.44230324074</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>45331</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>44748</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>44979</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3496,7 +3496,7 @@
         <v>45293</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>45162</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>45944.52140046296</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>45763</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>45236</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>45447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>45776</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>45777</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>45405</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>46037.64078703704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>45588</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>46037.63512731482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>44979</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>45775</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>45596</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>45447</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>45162</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>45436</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>46037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>46024.6446875</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>45042</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>45708</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         <v>45447</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>44362</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>44916</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>45546</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>44958</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>44721</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         <v>44687</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5179,7 +5179,7 @@
         <v>45333</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5236,7 +5236,7 @@
         <v>44795</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
         <v>45173</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         <v>45426</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>45387</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5469,7 +5469,7 @@
         <v>44916</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         <v>45776</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>45776</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>45645.49744212963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>45258.3846412037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>45217.40167824074</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
